--- a/docs/data/Boundary_Management_Tables.xlsx
+++ b/docs/data/Boundary_Management_Tables.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rudolphc/Desktop/Git_Projects/boundary_management_taxonomy/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rudolphc/Desktop/Git_Projects/sluseallab/boundary_management_taxonomy/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB08C731-3857-3B4E-908A-A459928D471A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27281428-AB96-1D46-B69C-59E6A53E811F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" activeTab="3" xr2:uid="{4C8D9691-51F6-9D47-9215-8766C7783DEA}"/>
+    <workbookView xWindow="8720" yWindow="8580" windowWidth="26900" windowHeight="15140" activeTab="2" xr2:uid="{4C8D9691-51F6-9D47-9215-8766C7783DEA}"/>
   </bookViews>
   <sheets>
     <sheet name="Construct_Definitions" sheetId="7" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1451" uniqueCount="580">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1448" uniqueCount="582">
   <si>
     <t>Permeability</t>
   </si>
@@ -1448,9 +1448,6 @@
     <t>I am willing to change plans with my friends and family so that I can finish a job assignment</t>
   </si>
   <si>
-    <t>Rangd from .75- .79</t>
-  </si>
-  <si>
     <t>I am willing to take an extended lunch break so that I can deal with responsibilities relating to my family and personal life</t>
   </si>
   <si>
@@ -1559,9 +1556,6 @@
     <t>Work-Related Smartphone Use on Vacation</t>
   </si>
   <si>
-    <t>Chen et al. (2018)</t>
-  </si>
-  <si>
     <t>Respondents were asked whether they used their smartphones during their most recent vacation to search for travel information, to search for other nonwork-related information, to connect to the social networking sites, to read work-related messages or e-mails, or to perform work-related tasks. (p. 6)</t>
   </si>
   <si>
@@ -1655,9 +1649,6 @@
     <t>To what extent do you take members of your family or nonwork friends and companions to company-sponsored or informal work-related gatherings?</t>
   </si>
   <si>
-    <t>Items do not reference flexibility and permeaiblity, therefore only assess permeability</t>
-  </si>
-  <si>
     <t>I never/often take care of nonwork matters while physically at my workplace</t>
   </si>
   <si>
@@ -1803,6 +1794,21 @@
   </si>
   <si>
     <t>I share organizational accomplishments on personally owned social media</t>
+  </si>
+  <si>
+    <t>Ranged from .75-.79</t>
+  </si>
+  <si>
+    <t>Chen et al. (2017)</t>
+  </si>
+  <si>
+    <t>Items do not reference flexibility and permeability, and therefore only assess permeability</t>
+  </si>
+  <si>
+    <t>Choose the Venn diagream tha tbest aligns with participants preferences.</t>
+  </si>
+  <si>
+    <t>N/A (Venn diagram method)</t>
   </si>
 </sst>
 </file>
@@ -2573,7 +2579,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A9719A7-E68A-8846-97F8-AE1FB1E9099F}">
   <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="F1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A35"/>
     </sheetView>
   </sheetViews>
@@ -3296,8 +3302,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C148E74-EAD7-284B-8295-46C94C2D3ED2}">
   <dimension ref="A1:I93"/>
   <sheetViews>
-    <sheetView zoomScale="65" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A93"/>
+    <sheetView tabSelected="1" topLeftCell="D74" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H83" sqref="H83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3361,8 +3367,8 @@
       <c r="G2" s="10" t="s">
         <v>431</v>
       </c>
-      <c r="H2" s="8" t="s">
-        <v>208</v>
+      <c r="H2" s="8">
+        <v>0.61</v>
       </c>
       <c r="I2" s="9" t="s">
         <v>432</v>
@@ -3768,7 +3774,7 @@
         <v>460</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>461</v>
+        <v>577</v>
       </c>
       <c r="I16" s="8" t="s">
         <v>432</v>
@@ -3794,10 +3800,10 @@
         <v>4</v>
       </c>
       <c r="G17" s="10" t="s">
+        <v>461</v>
+      </c>
+      <c r="H17" s="8" t="s">
         <v>462</v>
-      </c>
-      <c r="H17" s="8" t="s">
-        <v>463</v>
       </c>
       <c r="I17" s="8" t="s">
         <v>432</v>
@@ -3823,10 +3829,10 @@
         <v>4</v>
       </c>
       <c r="G18" s="10" t="s">
+        <v>463</v>
+      </c>
+      <c r="H18" s="8" t="s">
         <v>464</v>
-      </c>
-      <c r="H18" s="8" t="s">
-        <v>465</v>
       </c>
       <c r="I18" s="8" t="s">
         <v>432</v>
@@ -3852,10 +3858,10 @@
         <v>4</v>
       </c>
       <c r="G19" s="10" t="s">
+        <v>465</v>
+      </c>
+      <c r="H19" s="8" t="s">
         <v>466</v>
-      </c>
-      <c r="H19" s="8" t="s">
-        <v>467</v>
       </c>
       <c r="I19" s="8" t="s">
         <v>432</v>
@@ -3881,7 +3887,7 @@
         <v>3</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H20" s="8">
         <v>0.87</v>
@@ -3910,7 +3916,7 @@
         <v>4</v>
       </c>
       <c r="G21" s="10" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H21" s="8">
         <v>0.8</v>
@@ -3939,7 +3945,7 @@
         <v>4</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H22" s="8">
         <v>0.7</v>
@@ -3968,7 +3974,7 @@
         <v>3</v>
       </c>
       <c r="G23" s="10" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H23" s="8">
         <v>0.87</v>
@@ -3997,7 +4003,7 @@
         <v>3</v>
       </c>
       <c r="G24" s="10" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H24" s="8">
         <v>0.66</v>
@@ -4026,13 +4032,13 @@
         <v>4</v>
       </c>
       <c r="G25" s="10" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H25" s="8">
         <v>0.88</v>
       </c>
       <c r="I25" s="8" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="53" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -4049,13 +4055,13 @@
         <v>284</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="F26" s="8">
         <v>2</v>
       </c>
       <c r="G26" s="10" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H26" s="8" t="s">
         <v>208</v>
@@ -4078,13 +4084,13 @@
         <v>263</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="F27" s="8">
         <v>2</v>
       </c>
       <c r="G27" s="10" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="H27" s="8" t="s">
         <v>208</v>
@@ -4107,13 +4113,13 @@
         <v>264</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="F28" s="8">
         <v>4</v>
       </c>
       <c r="G28" s="10" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="H28" s="8">
         <v>0.89</v>
@@ -4136,13 +4142,13 @@
         <v>265</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="F29" s="8">
         <v>4</v>
       </c>
       <c r="G29" s="10" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H29" s="8">
         <v>0.93</v>
@@ -4159,7 +4165,7 @@
         <v>0</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D30" s="8" t="s">
         <v>201</v>
@@ -4171,10 +4177,10 @@
         <v>5</v>
       </c>
       <c r="G30" s="10" t="s">
+        <v>480</v>
+      </c>
+      <c r="H30" s="8" t="s">
         <v>481</v>
-      </c>
-      <c r="H30" s="8" t="s">
-        <v>482</v>
       </c>
       <c r="I30" s="8" t="s">
         <v>432</v>
@@ -4188,7 +4194,7 @@
         <v>0</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D31" s="8" t="s">
         <v>202</v>
@@ -4200,10 +4206,10 @@
         <v>5</v>
       </c>
       <c r="G31" s="10" t="s">
+        <v>482</v>
+      </c>
+      <c r="H31" s="8" t="s">
         <v>483</v>
-      </c>
-      <c r="H31" s="8" t="s">
-        <v>484</v>
       </c>
       <c r="I31" s="8" t="s">
         <v>432</v>
@@ -4217,7 +4223,7 @@
         <v>0</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D32" s="8" t="s">
         <v>271</v>
@@ -4229,13 +4235,13 @@
         <v>6</v>
       </c>
       <c r="G32" s="10" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H32" s="8" t="s">
         <v>208</v>
       </c>
       <c r="I32" s="8" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="53" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -4246,7 +4252,7 @@
         <v>0</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D33" s="8" t="s">
         <v>193</v>
@@ -4258,13 +4264,13 @@
         <v>3</v>
       </c>
       <c r="G33" s="10" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H33" s="8">
         <v>0.71</v>
       </c>
       <c r="I33" s="8" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="53" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -4275,7 +4281,7 @@
         <v>0</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D34" s="9" t="s">
         <v>252</v>
@@ -4287,7 +4293,7 @@
         <v>6</v>
       </c>
       <c r="G34" s="10" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H34" s="8">
         <v>0.8</v>
@@ -4304,7 +4310,7 @@
         <v>0</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D35" s="9" t="s">
         <v>249</v>
@@ -4316,7 +4322,7 @@
         <v>6</v>
       </c>
       <c r="G35" s="10" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H35" s="8">
         <v>0.89</v>
@@ -4333,7 +4339,7 @@
         <v>0</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D36" s="8" t="s">
         <v>217</v>
@@ -4345,7 +4351,7 @@
         <v>4</v>
       </c>
       <c r="G36" s="10" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H36" s="8">
         <v>0.84</v>
@@ -4362,7 +4368,7 @@
         <v>0</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D37" s="8" t="s">
         <v>215</v>
@@ -4374,13 +4380,13 @@
         <v>6</v>
       </c>
       <c r="G37" s="10" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H37" s="8">
         <v>0.87</v>
       </c>
       <c r="I37" s="8" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="53" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -4391,7 +4397,7 @@
         <v>0</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D38" s="8" t="s">
         <v>206</v>
@@ -4403,7 +4409,7 @@
         <v>4</v>
       </c>
       <c r="G38" s="10" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H38" s="8">
         <v>0.8</v>
@@ -4420,7 +4426,7 @@
         <v>0</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D39" s="8" t="s">
         <v>286</v>
@@ -4432,7 +4438,7 @@
         <v>3</v>
       </c>
       <c r="G39" s="10" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="H39" s="8">
         <v>0.95</v>
@@ -4449,7 +4455,7 @@
         <v>0</v>
       </c>
       <c r="C40" s="13" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D40" s="8" t="s">
         <v>188</v>
@@ -4461,7 +4467,7 @@
         <v>3</v>
       </c>
       <c r="G40" s="10" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="H40" s="8">
         <v>0.95</v>
@@ -4478,25 +4484,25 @@
         <v>0</v>
       </c>
       <c r="C41" s="13" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D41" s="9" t="s">
+        <v>496</v>
+      </c>
+      <c r="E41" s="9" t="s">
+        <v>578</v>
+      </c>
+      <c r="F41" s="8">
+        <v>5</v>
+      </c>
+      <c r="G41" s="8" t="s">
         <v>497</v>
-      </c>
-      <c r="E41" s="9" t="s">
-        <v>498</v>
-      </c>
-      <c r="F41" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="G41" s="8" t="s">
-        <v>499</v>
       </c>
       <c r="H41" s="8" t="s">
         <v>208</v>
       </c>
       <c r="I41" s="8" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="53" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -4507,19 +4513,19 @@
         <v>0</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="F42" s="8">
         <v>4</v>
       </c>
       <c r="G42" s="10" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="H42" s="8">
         <v>0.95</v>
@@ -4536,7 +4542,7 @@
         <v>0</v>
       </c>
       <c r="C43" s="13" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D43" s="8" t="s">
         <v>212</v>
@@ -4548,13 +4554,13 @@
         <v>5</v>
       </c>
       <c r="G43" s="10" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="H43" s="8">
         <v>0.72</v>
       </c>
       <c r="I43" s="8" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="53" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -4565,7 +4571,7 @@
         <v>0</v>
       </c>
       <c r="C44" s="13" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D44" s="8" t="s">
         <v>214</v>
@@ -4577,13 +4583,13 @@
         <v>6</v>
       </c>
       <c r="G44" s="10" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="H44" s="8">
         <v>0.75</v>
       </c>
       <c r="I44" s="8" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="53" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -4594,7 +4600,7 @@
         <v>171</v>
       </c>
       <c r="C45" s="13" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="D45" s="8" t="s">
         <v>236</v>
@@ -4606,13 +4612,13 @@
         <v>1</v>
       </c>
       <c r="G45" s="10" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="H45" s="8" t="s">
         <v>208</v>
       </c>
       <c r="I45" s="8" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="53" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -4623,10 +4629,10 @@
         <v>171</v>
       </c>
       <c r="C46" s="13" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="E46" s="8" t="s">
         <v>172</v>
@@ -4635,7 +4641,7 @@
         <v>3</v>
       </c>
       <c r="G46" s="10" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="H46" s="8">
         <v>0.73</v>
@@ -4652,7 +4658,7 @@
         <v>171</v>
       </c>
       <c r="C47" s="13" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="D47" s="8" t="s">
         <v>230</v>
@@ -4664,13 +4670,13 @@
         <v>3</v>
       </c>
       <c r="G47" s="10" t="s">
+        <v>509</v>
+      </c>
+      <c r="H47" s="8" t="s">
+        <v>510</v>
+      </c>
+      <c r="I47" s="8" t="s">
         <v>511</v>
-      </c>
-      <c r="H47" s="8" t="s">
-        <v>512</v>
-      </c>
-      <c r="I47" s="8" t="s">
-        <v>513</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="53" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -4681,7 +4687,7 @@
         <v>171</v>
       </c>
       <c r="C48" s="13" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="D48" s="8" t="s">
         <v>232</v>
@@ -4693,13 +4699,13 @@
         <v>3</v>
       </c>
       <c r="G48" s="10" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="H48" s="8" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="I48" s="8" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="53" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -4710,10 +4716,10 @@
         <v>171</v>
       </c>
       <c r="C49" s="13" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="E49" s="8" t="s">
         <v>191</v>
@@ -4722,13 +4728,13 @@
         <v>1</v>
       </c>
       <c r="G49" s="10" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="H49" s="8" t="s">
         <v>208</v>
       </c>
       <c r="I49" s="8" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="53" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -4739,7 +4745,7 @@
         <v>171</v>
       </c>
       <c r="C50" s="13" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="D50" s="8" t="s">
         <v>232</v>
@@ -4751,13 +4757,13 @@
         <v>5</v>
       </c>
       <c r="G50" s="10" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="H50" s="8">
         <v>0.8</v>
       </c>
       <c r="I50" s="8" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="53" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -4765,10 +4771,10 @@
         <v>50</v>
       </c>
       <c r="B51" s="13" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="C51" s="12" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="D51" s="9" t="s">
         <v>184</v>
@@ -4780,13 +4786,13 @@
         <v>3</v>
       </c>
       <c r="G51" s="10" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="H51" s="8" t="s">
         <v>208</v>
       </c>
       <c r="I51" s="8" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="53" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -4794,10 +4800,10 @@
         <v>51</v>
       </c>
       <c r="B52" s="13" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="C52" s="12" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="D52" s="8" t="s">
         <v>183</v>
@@ -4809,13 +4815,13 @@
         <v>2</v>
       </c>
       <c r="G52" s="11" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="H52" s="8">
         <v>0.86</v>
       </c>
       <c r="I52" s="8" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="53" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -4823,10 +4829,10 @@
         <v>52</v>
       </c>
       <c r="B53" s="13" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="C53" s="12" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="D53" s="8" t="s">
         <v>262</v>
@@ -4838,7 +4844,7 @@
         <v>5</v>
       </c>
       <c r="G53" s="10" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="H53" s="8" t="s">
         <v>208</v>
@@ -4852,10 +4858,10 @@
         <v>53</v>
       </c>
       <c r="B54" s="13" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="C54" s="12" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="D54" s="8" t="s">
         <v>282</v>
@@ -4867,7 +4873,7 @@
         <v>4</v>
       </c>
       <c r="G54" s="10" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="H54" s="8" t="s">
         <v>208</v>
@@ -4881,10 +4887,10 @@
         <v>54</v>
       </c>
       <c r="B55" s="13" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="C55" s="12" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="D55" s="8" t="s">
         <v>259</v>
@@ -4896,7 +4902,7 @@
         <v>5</v>
       </c>
       <c r="G55" s="10" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="H55" s="8" t="s">
         <v>208</v>
@@ -4910,10 +4916,10 @@
         <v>55</v>
       </c>
       <c r="B56" s="13" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="C56" s="12" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="D56" s="8" t="s">
         <v>261</v>
@@ -4925,7 +4931,7 @@
         <v>5</v>
       </c>
       <c r="G56" s="10" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="H56" s="8" t="s">
         <v>208</v>
@@ -4939,10 +4945,10 @@
         <v>56</v>
       </c>
       <c r="B57" s="13" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="C57" s="12" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="D57" s="8" t="s">
         <v>272</v>
@@ -4954,13 +4960,13 @@
         <v>3</v>
       </c>
       <c r="G57" s="10" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="H57" s="8" t="s">
         <v>208</v>
       </c>
       <c r="I57" s="8" t="s">
-        <v>530</v>
+        <v>579</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="53" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -4968,10 +4974,10 @@
         <v>57</v>
       </c>
       <c r="B58" s="13" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="C58" s="12" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="D58" s="8" t="s">
         <v>245</v>
@@ -4983,7 +4989,7 @@
         <v>5</v>
       </c>
       <c r="G58" s="10" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="H58" s="8">
         <v>0.85</v>
@@ -4997,10 +5003,10 @@
         <v>58</v>
       </c>
       <c r="B59" s="13" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="C59" s="12" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="D59" s="8" t="s">
         <v>247</v>
@@ -5012,7 +5018,7 @@
         <v>5</v>
       </c>
       <c r="G59" s="10" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="H59" s="8">
         <v>0.81</v>
@@ -5026,10 +5032,10 @@
         <v>59</v>
       </c>
       <c r="B60" s="13" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="C60" s="12" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="D60" s="8" t="s">
         <v>283</v>
@@ -5041,13 +5047,13 @@
         <v>4</v>
       </c>
       <c r="G60" s="10" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="H60" s="8" t="s">
         <v>208</v>
       </c>
       <c r="I60" s="8" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="53" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -5055,13 +5061,13 @@
         <v>60</v>
       </c>
       <c r="B61" s="13" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="C61" s="12" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="E61" s="8" t="s">
         <v>258</v>
@@ -5070,7 +5076,7 @@
         <v>2</v>
       </c>
       <c r="G61" s="10" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="H61" s="8" t="s">
         <v>208</v>
@@ -5084,10 +5090,10 @@
         <v>61</v>
       </c>
       <c r="B62" s="13" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="C62" s="12" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="D62" s="8" t="s">
         <v>205</v>
@@ -5099,13 +5105,13 @@
         <v>4</v>
       </c>
       <c r="G62" s="10" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="H62" s="8">
         <v>0.91</v>
       </c>
       <c r="I62" s="8" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="53" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -5113,10 +5119,10 @@
         <v>62</v>
       </c>
       <c r="B63" s="13" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="C63" s="12" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="D63" s="8" t="s">
         <v>203</v>
@@ -5128,13 +5134,13 @@
         <v>4</v>
       </c>
       <c r="G63" s="10" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="H63" s="8">
         <v>0.94</v>
       </c>
       <c r="I63" s="8" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="53" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -5142,10 +5148,10 @@
         <v>63</v>
       </c>
       <c r="B64" s="13" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="C64" s="12" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="D64" s="8" t="s">
         <v>233</v>
@@ -5157,13 +5163,13 @@
         <v>4</v>
       </c>
       <c r="G64" s="10" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="H64" s="8">
         <v>0.82</v>
       </c>
       <c r="I64" s="8" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
     </row>
     <row r="65" spans="1:9" ht="53" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -5171,10 +5177,10 @@
         <v>64</v>
       </c>
       <c r="B65" s="13" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="C65" s="12" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="D65" s="8" t="s">
         <v>219</v>
@@ -5186,7 +5192,7 @@
         <v>7</v>
       </c>
       <c r="G65" s="10" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="H65" s="8">
         <v>0.87</v>
@@ -5200,10 +5206,10 @@
         <v>65</v>
       </c>
       <c r="B66" s="13" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="C66" s="12" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="D66" s="8" t="s">
         <v>197</v>
@@ -5215,7 +5221,7 @@
         <v>12</v>
       </c>
       <c r="G66" s="10" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="H66" s="8">
         <v>0.71</v>
@@ -5229,13 +5235,13 @@
         <v>66</v>
       </c>
       <c r="B67" s="13" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="C67" s="12" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="E67" s="8" t="s">
         <v>250</v>
@@ -5244,13 +5250,13 @@
         <v>11</v>
       </c>
       <c r="G67" s="10" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="H67" s="8" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="I67" s="8" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
     </row>
     <row r="68" spans="1:9" ht="53" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -5258,13 +5264,13 @@
         <v>67</v>
       </c>
       <c r="B68" s="13" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="C68" s="12" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="D68" s="8" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="E68" s="8" t="s">
         <v>250</v>
@@ -5273,13 +5279,13 @@
         <v>11</v>
       </c>
       <c r="G68" s="10" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="H68" s="8" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="I68" s="8" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
     </row>
     <row r="69" spans="1:9" ht="53" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -5287,10 +5293,10 @@
         <v>68</v>
       </c>
       <c r="B69" s="13" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="C69" s="12" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="D69" s="8" t="s">
         <v>232</v>
@@ -5302,13 +5308,13 @@
         <v>5</v>
       </c>
       <c r="G69" s="10" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="H69" s="8">
         <v>0.65</v>
       </c>
       <c r="I69" s="8" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
     </row>
     <row r="70" spans="1:9" ht="53" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -5316,10 +5322,10 @@
         <v>69</v>
       </c>
       <c r="B70" s="13" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="C70" s="12" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="D70" s="8" t="s">
         <v>229</v>
@@ -5331,7 +5337,7 @@
         <v>4</v>
       </c>
       <c r="G70" s="10" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="H70" s="8">
         <v>0.9</v>
@@ -5345,10 +5351,10 @@
         <v>70</v>
       </c>
       <c r="B71" s="13" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="C71" s="12" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="D71" s="8" t="s">
         <v>189</v>
@@ -5357,10 +5363,10 @@
         <v>190</v>
       </c>
       <c r="F71" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="G71" s="8" t="s">
-        <v>208</v>
+        <v>581</v>
+      </c>
+      <c r="G71" s="10" t="s">
+        <v>580</v>
       </c>
       <c r="H71" s="8" t="s">
         <v>208</v>
@@ -5374,10 +5380,10 @@
         <v>71</v>
       </c>
       <c r="B72" s="13" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="C72" s="12" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="D72" s="8" t="s">
         <v>167</v>
@@ -5389,10 +5395,10 @@
         <v>4</v>
       </c>
       <c r="G72" s="10" t="s">
-        <v>552</v>
-      </c>
-      <c r="H72" s="8" t="s">
-        <v>208</v>
+        <v>549</v>
+      </c>
+      <c r="H72" s="8">
+        <v>0.94</v>
       </c>
       <c r="I72" s="8" t="s">
         <v>432</v>
@@ -5403,10 +5409,10 @@
         <v>72</v>
       </c>
       <c r="B73" s="13" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="C73" s="12" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="D73" s="8" t="s">
         <v>273</v>
@@ -5418,13 +5424,13 @@
         <v>3</v>
       </c>
       <c r="G73" s="10" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="H73" s="8">
         <v>0.87</v>
       </c>
       <c r="I73" s="8" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
     </row>
     <row r="74" spans="1:9" ht="53" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -5435,7 +5441,7 @@
         <v>174</v>
       </c>
       <c r="C74" s="12" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="D74" s="8" t="s">
         <v>281</v>
@@ -5447,7 +5453,7 @@
         <v>3</v>
       </c>
       <c r="G74" s="10" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="H74" s="8" t="s">
         <v>208</v>
@@ -5464,7 +5470,7 @@
         <v>174</v>
       </c>
       <c r="C75" s="12" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="D75" s="8" t="s">
         <v>241</v>
@@ -5476,7 +5482,7 @@
         <v>2</v>
       </c>
       <c r="G75" s="10" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="H75" s="8" t="s">
         <v>208</v>
@@ -5493,7 +5499,7 @@
         <v>174</v>
       </c>
       <c r="C76" s="12" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="D76" s="8" t="s">
         <v>224</v>
@@ -5505,7 +5511,7 @@
         <v>1</v>
       </c>
       <c r="G76" s="10" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="H76" s="8" t="s">
         <v>208</v>
@@ -5522,7 +5528,7 @@
         <v>174</v>
       </c>
       <c r="C77" s="12" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="D77" s="8" t="s">
         <v>225</v>
@@ -5534,7 +5540,7 @@
         <v>1</v>
       </c>
       <c r="G77" s="10" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="H77" s="8" t="s">
         <v>208</v>
@@ -5551,7 +5557,7 @@
         <v>174</v>
       </c>
       <c r="C78" s="12" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="D78" s="8" t="s">
         <v>175</v>
@@ -5563,7 +5569,7 @@
         <v>2</v>
       </c>
       <c r="G78" s="10" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="H78" s="8" t="s">
         <v>208</v>
@@ -5580,7 +5586,7 @@
         <v>174</v>
       </c>
       <c r="C79" s="12" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="D79" s="8" t="s">
         <v>196</v>
@@ -5592,7 +5598,7 @@
         <v>6</v>
       </c>
       <c r="G79" s="10" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="H79" s="8">
         <v>0.9</v>
@@ -5609,7 +5615,7 @@
         <v>174</v>
       </c>
       <c r="C80" s="12" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="D80" s="8" t="s">
         <v>288</v>
@@ -5621,7 +5627,7 @@
         <v>1</v>
       </c>
       <c r="G80" s="10" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="H80" s="8" t="s">
         <v>208</v>
@@ -5638,7 +5644,7 @@
         <v>174</v>
       </c>
       <c r="C81" s="12" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="D81" s="8" t="s">
         <v>223</v>
@@ -5650,7 +5656,7 @@
         <v>1</v>
       </c>
       <c r="G81" s="10" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="H81" s="8" t="s">
         <v>208</v>
@@ -5667,7 +5673,7 @@
         <v>174</v>
       </c>
       <c r="C82" s="12" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="D82" s="8" t="s">
         <v>268</v>
@@ -5679,7 +5685,7 @@
         <v>3</v>
       </c>
       <c r="G82" s="10" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="H82" s="8">
         <v>0.56000000000000005</v>
@@ -5696,7 +5702,7 @@
         <v>174</v>
       </c>
       <c r="C83" s="12" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="D83" s="8" t="s">
         <v>280</v>
@@ -5708,7 +5714,7 @@
         <v>6</v>
       </c>
       <c r="G83" s="10" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="H83" s="8" t="s">
         <v>208</v>
@@ -5725,7 +5731,7 @@
         <v>174</v>
       </c>
       <c r="C84" s="12" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="D84" s="9" t="s">
         <v>238</v>
@@ -5737,7 +5743,7 @@
         <v>1</v>
       </c>
       <c r="G84" s="10" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="H84" s="8" t="s">
         <v>208</v>
@@ -5754,7 +5760,7 @@
         <v>174</v>
       </c>
       <c r="C85" s="12" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="D85" s="8" t="s">
         <v>226</v>
@@ -5766,7 +5772,7 @@
         <v>7</v>
       </c>
       <c r="G85" s="10" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="H85" s="8" t="s">
         <v>208</v>
@@ -5783,7 +5789,7 @@
         <v>174</v>
       </c>
       <c r="C86" s="12" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="D86" s="8" t="s">
         <v>270</v>
@@ -5795,7 +5801,7 @@
         <v>2</v>
       </c>
       <c r="G86" s="10" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="H86" s="8">
         <v>0.79</v>
@@ -5812,7 +5818,7 @@
         <v>174</v>
       </c>
       <c r="C87" s="12" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="D87" s="8" t="s">
         <v>266</v>
@@ -5824,7 +5830,7 @@
         <v>3</v>
       </c>
       <c r="G87" s="10" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="H87" s="8">
         <v>0.85</v>
@@ -5841,7 +5847,7 @@
         <v>174</v>
       </c>
       <c r="C88" s="12" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="D88" s="8" t="s">
         <v>266</v>
@@ -5853,7 +5859,7 @@
         <v>10</v>
       </c>
       <c r="G88" s="10" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="H88" s="8">
         <v>0.91</v>
@@ -5870,10 +5876,10 @@
         <v>174</v>
       </c>
       <c r="C89" s="12" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="D89" s="8" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="E89" s="8" t="s">
         <v>228</v>
@@ -5882,7 +5888,7 @@
         <v>4</v>
       </c>
       <c r="G89" s="8" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="H89" s="8">
         <v>0.83</v>
@@ -5899,7 +5905,7 @@
         <v>174</v>
       </c>
       <c r="C90" s="12" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="D90" s="8" t="s">
         <v>274</v>
@@ -5911,7 +5917,7 @@
         <v>3</v>
       </c>
       <c r="G90" s="10" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="H90" s="8">
         <v>0.94</v>
@@ -5928,19 +5934,19 @@
         <v>174</v>
       </c>
       <c r="C91" s="12" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="D91" s="32" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="E91" s="32" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="F91" s="30">
         <v>4</v>
       </c>
       <c r="G91" s="34" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="H91" s="30">
         <v>0.83</v>
@@ -5957,7 +5963,7 @@
         <v>174</v>
       </c>
       <c r="C92" s="12" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="D92" s="33"/>
       <c r="E92" s="33"/>
@@ -5974,19 +5980,19 @@
         <v>174</v>
       </c>
       <c r="C93" s="18" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="D93" s="9" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="E93" s="9" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="F93" s="8">
         <v>6</v>
       </c>
       <c r="G93" s="10" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="H93" s="8">
         <v>0.93</v>
@@ -6013,7 +6019,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10180BE9-1079-A845-8A7C-CC59A2B3DC8C}">
   <dimension ref="A1:N329"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F90" sqref="F90"/>
     </sheetView>
   </sheetViews>

--- a/docs/data/Boundary_Management_Tables.xlsx
+++ b/docs/data/Boundary_Management_Tables.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rudolphc/Desktop/Git_Projects/sluseallab/boundary_management_taxonomy/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/haleycobb/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39A0AC4A-8BBE-7F49-8BEE-4838E5648F4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C051573F-B9F5-E54A-8E27-0731AFF965DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="500" yWindow="680" windowWidth="17140" windowHeight="13600" activeTab="3" xr2:uid="{4C8D9691-51F6-9D47-9215-8766C7783DEA}"/>
+    <workbookView xWindow="2600" yWindow="6720" windowWidth="24980" windowHeight="10460" activeTab="3" xr2:uid="{4C8D9691-51F6-9D47-9215-8766C7783DEA}"/>
   </bookViews>
   <sheets>
     <sheet name="Construct_Definitions" sheetId="7" r:id="rId1"/>
@@ -20,7 +20,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Construct_Definitions!$A$1:$C$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Table_1!$A$1:$I$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Table_1!$A$1:$I$92</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Table_2!$A$1:$H$92</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Theory_Summary!$A$1:$F$1</definedName>
   </definedNames>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1446" uniqueCount="597">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1444" uniqueCount="596">
   <si>
     <t>Permeability</t>
   </si>
@@ -260,9 +260,6 @@
     <t>Work-Family Integration-Blurring (Desrochers et al., 2005)</t>
   </si>
   <si>
-    <t>Behavioral, physical</t>
-  </si>
-  <si>
     <t>Actual Segmentation of Work Domain from Family Domain (Powell &amp; Greenhaus, 2010)</t>
   </si>
   <si>
@@ -270,9 +267,6 @@
   </si>
   <si>
     <t>Boundary Violations at Work (Hunter et al., 2019)</t>
-  </si>
-  <si>
-    <t>Boundary violations at home (Hunter et al., 2019)</t>
   </si>
   <si>
     <t>Index</t>
@@ -1394,9 +1388,6 @@
     <t>I leave my personal life outside of the workplace</t>
   </si>
   <si>
-    <t>Ranged from .82 - .90</t>
-  </si>
-  <si>
     <t>Refers to permeability as it is actualized by the individual</t>
   </si>
   <si>
@@ -1466,21 +1457,12 @@
     <t>I am willing to take an extended lunch break so that I can deal with responsibilities relating to my family and personal life</t>
   </si>
   <si>
-    <t>Ranged from .68-.71</t>
-  </si>
-  <si>
     <t>If the need arose, I could work late without affecting my family and personal responsibilities</t>
   </si>
   <si>
-    <t>Ranged from .71-.72</t>
-  </si>
-  <si>
     <t>I am able to arrive and depart from work when I want in order to meet my family and my personal life responsibilities</t>
   </si>
   <si>
-    <t>Ranged from .84-.86</t>
-  </si>
-  <si>
     <t>While at work, I can stop what I am doing to meet responsibilities related to my family life</t>
   </si>
   <si>
@@ -1499,9 +1481,6 @@
     <t>Since you used smartphones for work purposes, how much flexibility have you had in selecting the location where you work?</t>
   </si>
   <si>
-    <t>Most items refer to technology rather than flexibility in general</t>
-  </si>
-  <si>
     <t>Delanoejie &amp; Verbruggen (2019)</t>
   </si>
   <si>
@@ -1523,21 +1502,12 @@
     <t>I take care of personal or family needs during work</t>
   </si>
   <si>
-    <t>Ranged from .74-.79</t>
-  </si>
-  <si>
     <t>I allow work to interrupt me when I spend time with my family or friends</t>
   </si>
   <si>
-    <t>Ranged from .83.-84</t>
-  </si>
-  <si>
     <t>Frequency of use—using work email for personal use</t>
   </si>
   <si>
-    <t>Refers to technology specifically rather than permeability in general</t>
-  </si>
-  <si>
     <t>I respond to work-related communication, e.g., emails, texts, and phone calls, during my personal time away from work</t>
   </si>
   <si>
@@ -1556,9 +1526,6 @@
     <t xml:space="preserve">I frequently work before or after traditional business hours </t>
   </si>
   <si>
-    <t>Most items refer to technology</t>
-  </si>
-  <si>
     <t>Receive pages from work at home</t>
   </si>
   <si>
@@ -1628,9 +1595,6 @@
     <t>Respondents were asked to indicate on a nine-point scale (where 1 denoted total separation and 9 represented total integration) the extent to which their work and home lives were separated/integrated (p. 242)</t>
   </si>
   <si>
-    <t>Item is not extreme enough to capture role blurring</t>
-  </si>
-  <si>
     <t>How often did you think about work-related things when you were not working?</t>
   </si>
   <si>
@@ -1682,9 +1646,6 @@
     <t>I prefer to keep work life at work</t>
   </si>
   <si>
-    <t>Limited attention to flexibility and permeability together, therefore assesses permeability</t>
-  </si>
-  <si>
     <t>Where I work, people can keep work matters at work</t>
   </si>
   <si>
@@ -1721,9 +1682,6 @@
     <t>How often do you try to work on job tasks and home tasks at the same time while you are at home?</t>
   </si>
   <si>
-    <t>Refers more to being behaviorally engaged in opposite-domain tasks</t>
-  </si>
-  <si>
     <t>I prefer to keep my family/ personal life at home</t>
   </si>
   <si>
@@ -1811,15 +1769,9 @@
     <t>I share organizational accomplishments on personally owned social media</t>
   </si>
   <si>
-    <t>Ranged from .75-.79</t>
-  </si>
-  <si>
     <t>Chen et al. (2017)</t>
   </si>
   <si>
-    <t>Items do not reference flexibility and permeability, and therefore only assess permeability</t>
-  </si>
-  <si>
     <t>Choose the Venn diagream tha tbest aligns with participants preferences.</t>
   </si>
   <si>
@@ -1829,12 +1781,6 @@
     <t>Smartphone Use and Work-Related Communication</t>
   </si>
   <si>
-    <t>The definition is more focused on permeability but the items are more reflective of flexibility</t>
-  </si>
-  <si>
-    <t>Items are more reflexive of flexibility than overall segmentation-integration</t>
-  </si>
-  <si>
     <t>Technology, Behavioral, Physical</t>
   </si>
   <si>
@@ -1847,9 +1793,6 @@
     <t>Technology, Behavioral, Psychological</t>
   </si>
   <si>
-    <t xml:space="preserve">Technology, Behavioral </t>
-  </si>
-  <si>
     <t>Technology, Temporal</t>
   </si>
   <si>
@@ -1865,13 +1808,67 @@
     <t>Conceptual definition leans more towards permeability, suggesting that social media use can interrupt personal life, but does mention the ubiquity of social media use (e.g., reference to permeability and flexibility)</t>
   </si>
   <si>
-    <t>Unclear if technology use after work hours is more aligned with permeability (e.g., interruptions) or flexibility (e.g., working at varying hours), although scale items lean more towards permeability</t>
-  </si>
-  <si>
     <t xml:space="preserve">Conceptual definition refers to role blurring but item refers more to instances of permeability or interruptions </t>
   </si>
   <si>
-    <t>Leans heavily towards flexibility</t>
+    <t>Ranged from .84 - .85</t>
+  </si>
+  <si>
+    <t>Refers to flexibility and autonomy</t>
+  </si>
+  <si>
+    <t>Ranged from .72-.76</t>
+  </si>
+  <si>
+    <t>Ranged from .71-.73</t>
+  </si>
+  <si>
+    <t>Items appear to assess permeability</t>
+  </si>
+  <si>
+    <t>Most items refer to where work is done (e.g., flexibility)</t>
+  </si>
+  <si>
+    <t>Ranged from .85-.94</t>
+  </si>
+  <si>
+    <t>Ranged from .89-.94</t>
+  </si>
+  <si>
+    <t>Could refer to flexibility or characteristics</t>
+  </si>
+  <si>
+    <t>Refers to permeability and flexibility</t>
+  </si>
+  <si>
+    <t>Ranged from .82 - .85</t>
+  </si>
+  <si>
+    <t>Behavioral, Psychological, Physical</t>
+  </si>
+  <si>
+    <t>Behavioral, Temporal, Technology</t>
+  </si>
+  <si>
+    <t>Technology, Physical</t>
+  </si>
+  <si>
+    <t>Technology, Temporal, Physical</t>
+  </si>
+  <si>
+    <t>Temporal, Behavioral, Physical</t>
+  </si>
+  <si>
+    <t>Boundary Violations at Home (Hunter et al., 2019)</t>
+  </si>
+  <si>
+    <t>Behavioral, Technology, Psychological</t>
+  </si>
+  <si>
+    <t>Behavioral, Physical, Psychological</t>
+  </si>
+  <si>
+    <t>Technology, Temporal, Behavioral, Physical</t>
   </si>
 </sst>
 </file>
@@ -2062,7 +2059,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2166,6 +2163,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2512,13 +2512,13 @@
   <sheetData>
     <row r="1" spans="1:3" s="24" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C1" s="23" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -2526,10 +2526,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -2537,10 +2537,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -2548,10 +2548,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -2559,10 +2559,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -2570,10 +2570,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -2584,7 +2584,7 @@
         <v>4</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -2595,7 +2595,7 @@
         <v>0</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -2606,7 +2606,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -2614,10 +2614,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -2625,10 +2625,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -2639,7 +2639,7 @@
         <v>34</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -2650,7 +2650,7 @@
         <v>2</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -2658,10 +2658,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
   </sheetData>
@@ -2689,22 +2689,22 @@
   <sheetData>
     <row r="1" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>323</v>
+      </c>
+      <c r="F1" s="6" t="s">
         <v>324</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>305</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>325</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -2712,19 +2712,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="D2" s="8" t="s">
         <v>327</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="E2" s="8" t="s">
         <v>328</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="F2" s="8" t="s">
         <v>329</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>330</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -2732,19 +2732,19 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -2752,19 +2752,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C4" s="8" t="s">
+        <v>332</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>333</v>
+      </c>
+      <c r="E4" s="8" t="s">
         <v>334</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="F4" s="8" t="s">
         <v>335</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>336</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -2772,19 +2772,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C5" s="8" t="s">
+        <v>336</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>337</v>
+      </c>
+      <c r="E5" s="8" t="s">
         <v>338</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="F5" s="8" t="s">
         <v>339</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>340</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -2792,19 +2792,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C6" s="8" t="s">
+        <v>340</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="E6" s="8" t="s">
         <v>342</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="F6" s="8" t="s">
         <v>343</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>344</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -2812,19 +2812,19 @@
         <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>0</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="E7" s="8" t="s">
         <v>0</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -2832,19 +2832,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>1</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="E8" s="8" t="s">
         <v>1</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -2852,19 +2852,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C9" s="8" t="s">
+        <v>348</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>349</v>
+      </c>
+      <c r="E9" s="8" t="s">
         <v>350</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="F9" s="8" t="s">
         <v>351</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>352</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -2872,19 +2872,19 @@
         <v>9</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C10" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>353</v>
+      </c>
+      <c r="E10" s="8" t="s">
         <v>354</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="F10" s="8" t="s">
         <v>355</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>356</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -2892,19 +2892,19 @@
         <v>10</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C11" s="8" t="s">
+        <v>356</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="E11" s="8" t="s">
         <v>358</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="F11" s="8" t="s">
         <v>359</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>360</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -2912,19 +2912,19 @@
         <v>11</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C12" s="8" t="s">
+        <v>360</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>361</v>
+      </c>
+      <c r="E12" s="8" t="s">
         <v>362</v>
       </c>
-      <c r="D12" s="8" t="s">
-        <v>363</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>364</v>
-      </c>
       <c r="F12" s="8" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -2932,19 +2932,19 @@
         <v>12</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -2952,19 +2952,19 @@
         <v>13</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C14" s="8" t="s">
+        <v>365</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>366</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="F14" s="8" t="s">
         <v>367</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>368</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>336</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -2972,19 +2972,19 @@
         <v>14</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -2992,19 +2992,19 @@
         <v>15</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -3012,19 +3012,19 @@
         <v>16</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C17" s="8" t="s">
+        <v>372</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>373</v>
+      </c>
+      <c r="E17" s="8" t="s">
         <v>374</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="F17" s="8" t="s">
         <v>375</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>376</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -3032,19 +3032,19 @@
         <v>17</v>
       </c>
       <c r="B18" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>377</v>
+      </c>
+      <c r="E18" s="8" t="s">
         <v>378</v>
       </c>
-      <c r="C18" s="8" t="s">
-        <v>336</v>
-      </c>
-      <c r="D18" s="8" t="s">
+      <c r="F18" s="8" t="s">
         <v>379</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>380</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -3052,19 +3052,19 @@
         <v>18</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -3072,19 +3072,19 @@
         <v>19</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -3092,19 +3092,19 @@
         <v>20</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C21" s="8" t="s">
         <v>1</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="E21" s="8" t="s">
         <v>1</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -3112,19 +3112,19 @@
         <v>21</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C22" s="8" t="s">
         <v>0</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="E22" s="8" t="s">
         <v>0</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -3132,19 +3132,19 @@
         <v>22</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -3152,19 +3152,19 @@
         <v>23</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C24" s="8" t="s">
+        <v>389</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>390</v>
+      </c>
+      <c r="E24" s="8" t="s">
         <v>391</v>
       </c>
-      <c r="D24" s="8" t="s">
+      <c r="F24" s="8" t="s">
         <v>392</v>
-      </c>
-      <c r="E24" s="8" t="s">
-        <v>393</v>
-      </c>
-      <c r="F24" s="8" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -3172,19 +3172,19 @@
         <v>24</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C25" s="8" t="s">
+        <v>393</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>394</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>348</v>
+      </c>
+      <c r="F25" s="8" t="s">
         <v>395</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>396</v>
-      </c>
-      <c r="E25" s="8" t="s">
-        <v>350</v>
-      </c>
-      <c r="F25" s="8" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -3192,19 +3192,19 @@
         <v>25</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -3212,19 +3212,19 @@
         <v>26</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C27" s="8" t="s">
+        <v>398</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>399</v>
+      </c>
+      <c r="E27" s="8" t="s">
         <v>400</v>
       </c>
-      <c r="D27" s="8" t="s">
+      <c r="F27" s="8" t="s">
         <v>401</v>
-      </c>
-      <c r="E27" s="8" t="s">
-        <v>402</v>
-      </c>
-      <c r="F27" s="8" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -3232,19 +3232,19 @@
         <v>27</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -3252,19 +3252,19 @@
         <v>28</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C29" s="8" t="s">
+        <v>404</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="E29" s="8" t="s">
         <v>406</v>
       </c>
-      <c r="D29" s="8" t="s">
+      <c r="F29" s="8" t="s">
         <v>407</v>
-      </c>
-      <c r="E29" s="8" t="s">
-        <v>408</v>
-      </c>
-      <c r="F29" s="8" t="s">
-        <v>409</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -3272,19 +3272,19 @@
         <v>29</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -3292,19 +3292,19 @@
         <v>30</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -3312,19 +3312,19 @@
         <v>31</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -3332,19 +3332,19 @@
         <v>32</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -3352,19 +3352,19 @@
         <v>33</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F34" s="8" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -3372,19 +3372,19 @@
         <v>34</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
   </sheetData>
@@ -3398,8 +3398,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C148E74-EAD7-284B-8295-46C94C2D3ED2}">
   <dimension ref="A1:I92"/>
   <sheetViews>
-    <sheetView topLeftCell="B71" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E74" sqref="E74"/>
+    <sheetView topLeftCell="A87" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A92" sqref="A92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3414,31 +3414,31 @@
   <sheetData>
     <row r="1" spans="1:9" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>420</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>422</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>423</v>
       </c>
-      <c r="D1" s="6" t="s">
-        <v>304</v>
-      </c>
-      <c r="E1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>424</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>425</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>426</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>427</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>428</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="53" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -3446,28 +3446,28 @@
         <v>1</v>
       </c>
       <c r="B2" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>427</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="E2" s="8" t="s">
         <v>179</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>429</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>181</v>
       </c>
       <c r="F2" s="8">
         <v>3</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="H2" s="8">
         <v>0.61</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="53" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -3475,28 +3475,28 @@
         <v>2</v>
       </c>
       <c r="B3" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>427</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="E3" s="9" t="s">
         <v>179</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>429</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>181</v>
       </c>
       <c r="F3" s="8">
         <v>3</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="H3" s="8">
         <v>0.91</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="53" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -3504,28 +3504,28 @@
         <v>3</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F4" s="8">
         <v>8</v>
       </c>
       <c r="G4" s="10" t="s">
+        <v>431</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>432</v>
+      </c>
+      <c r="I4" s="8" t="s">
         <v>433</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>434</v>
-      </c>
-      <c r="I4" s="8" t="s">
-        <v>435</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="53" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -3533,28 +3533,28 @@
         <v>4</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F5" s="8">
         <v>8</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>437</v>
+        <v>586</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="53" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -3565,25 +3565,25 @@
         <v>2</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F6" s="8">
         <v>3</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>440</v>
-      </c>
-      <c r="H6" s="8">
-        <v>0.88</v>
+        <v>437</v>
+      </c>
+      <c r="H6" s="37" t="s">
+        <v>576</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="53" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -3594,25 +3594,25 @@
         <v>2</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F7" s="8">
         <v>1</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="53" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -3623,25 +3623,25 @@
         <v>2</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F8" s="8">
         <v>7</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="H8" s="8">
         <v>0.74</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="53" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -3652,25 +3652,25 @@
         <v>2</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F9" s="8">
         <v>3</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="H9" s="8">
         <v>0.73</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="53" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -3681,25 +3681,25 @@
         <v>2</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F10" s="8">
         <v>3</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="H10" s="8">
         <v>0.7</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="53" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -3710,25 +3710,25 @@
         <v>2</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="F11" s="8">
         <v>6</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="H11" s="8">
         <v>0.84</v>
       </c>
       <c r="I11" s="8" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="53" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -3739,25 +3739,25 @@
         <v>2</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F12" s="8">
         <v>6</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="H12" s="8">
         <v>0.87</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="53" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -3768,25 +3768,25 @@
         <v>2</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="F13" s="8">
         <v>1</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="I13" s="8" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="53" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -3797,25 +3797,25 @@
         <v>2</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F14" s="8">
         <v>1</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="53" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -3826,25 +3826,25 @@
         <v>1</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F15" s="8">
         <v>5</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="H15" s="8">
         <v>0.95</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="53" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -3855,25 +3855,25 @@
         <v>1</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F16" s="8">
         <v>4</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>459</v>
-      </c>
-      <c r="H16" s="8" t="s">
-        <v>576</v>
+        <v>456</v>
+      </c>
+      <c r="H16" s="8">
+        <v>0.79</v>
       </c>
       <c r="I16" s="8" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="53" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -3884,25 +3884,25 @@
         <v>1</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F17" s="8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G17" s="10" t="s">
-        <v>460</v>
-      </c>
-      <c r="H17" s="8" t="s">
-        <v>461</v>
+        <v>457</v>
+      </c>
+      <c r="H17" s="8">
+        <v>0.71</v>
       </c>
       <c r="I17" s="8" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="53" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -3913,25 +3913,25 @@
         <v>1</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F18" s="8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G18" s="10" t="s">
-        <v>462</v>
-      </c>
-      <c r="H18" s="8" t="s">
-        <v>463</v>
+        <v>458</v>
+      </c>
+      <c r="H18" s="8">
+        <v>0.71</v>
       </c>
       <c r="I18" s="8" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="53" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -3942,25 +3942,25 @@
         <v>1</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F19" s="8">
         <v>4</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>464</v>
-      </c>
-      <c r="H19" s="8" t="s">
-        <v>465</v>
+        <v>459</v>
+      </c>
+      <c r="H19" s="8">
+        <v>0.86</v>
       </c>
       <c r="I19" s="8" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="53" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -3971,25 +3971,25 @@
         <v>1</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F20" s="8">
         <v>3</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="H20" s="8">
         <v>0.87</v>
       </c>
       <c r="I20" s="8" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="53" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -4000,25 +4000,25 @@
         <v>1</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F21" s="8">
         <v>4</v>
       </c>
       <c r="G21" s="10" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="H21" s="8">
         <v>0.8</v>
       </c>
       <c r="I21" s="8" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="53" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -4029,25 +4029,25 @@
         <v>1</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F22" s="8">
         <v>4</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="H22" s="8">
         <v>0.7</v>
       </c>
       <c r="I22" s="8" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="53" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -4058,25 +4058,25 @@
         <v>1</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F23" s="8">
         <v>3</v>
       </c>
       <c r="G23" s="10" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="H23" s="8">
         <v>0.87</v>
       </c>
       <c r="I23" s="8" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="53" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -4087,25 +4087,25 @@
         <v>1</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F24" s="8">
         <v>3</v>
       </c>
       <c r="G24" s="10" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="H24" s="8">
         <v>0.66</v>
       </c>
       <c r="I24" s="8" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="53" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -4116,25 +4116,25 @@
         <v>1</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="D25" s="9" t="s">
         <v>1</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F25" s="8">
         <v>4</v>
       </c>
       <c r="G25" s="10" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="H25" s="8">
-        <v>0.88</v>
-      </c>
-      <c r="I25" s="8" t="s">
-        <v>472</v>
+        <v>0.82</v>
+      </c>
+      <c r="I25" s="37" t="s">
+        <v>577</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="53" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -4145,25 +4145,25 @@
         <v>1</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="F26" s="8">
         <v>2</v>
       </c>
       <c r="G26" s="10" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="H26" s="8" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="I26" s="8" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="53" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -4174,25 +4174,25 @@
         <v>1</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="F27" s="8">
         <v>2</v>
       </c>
       <c r="G27" s="10" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="H27" s="8" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="I27" s="8" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="53" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -4203,25 +4203,25 @@
         <v>1</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="F28" s="8">
         <v>4</v>
       </c>
       <c r="G28" s="10" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="H28" s="8">
         <v>0.89</v>
       </c>
       <c r="I28" s="8" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="53" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -4232,25 +4232,25 @@
         <v>1</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="F29" s="8">
         <v>4</v>
       </c>
       <c r="G29" s="10" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="H29" s="8">
         <v>0.93</v>
       </c>
       <c r="I29" s="8" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="53" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -4261,25 +4261,25 @@
         <v>0</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F30" s="8">
         <v>5</v>
       </c>
       <c r="G30" s="10" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="H30" s="8" t="s">
-        <v>480</v>
+        <v>578</v>
       </c>
       <c r="I30" s="8" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="53" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -4290,25 +4290,25 @@
         <v>0</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F31" s="8">
         <v>5</v>
       </c>
       <c r="G31" s="10" t="s">
-        <v>481</v>
-      </c>
-      <c r="H31" s="8" t="s">
-        <v>482</v>
+        <v>473</v>
+      </c>
+      <c r="H31" s="8">
+        <v>0.8</v>
       </c>
       <c r="I31" s="8" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="53" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -4319,25 +4319,25 @@
         <v>0</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F32" s="8">
         <v>6</v>
       </c>
       <c r="G32" s="10" t="s">
-        <v>483</v>
+        <v>474</v>
       </c>
       <c r="H32" s="8" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="I32" s="8" t="s">
-        <v>484</v>
+        <v>429</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="53" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -4348,25 +4348,25 @@
         <v>0</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F33" s="8">
         <v>3</v>
       </c>
       <c r="G33" s="10" t="s">
-        <v>485</v>
-      </c>
-      <c r="H33" s="8">
-        <v>0.71</v>
+        <v>475</v>
+      </c>
+      <c r="H33" s="8" t="s">
+        <v>579</v>
       </c>
       <c r="I33" s="8" t="s">
-        <v>486</v>
+        <v>476</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="53" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -4377,25 +4377,25 @@
         <v>0</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F34" s="8">
         <v>6</v>
       </c>
       <c r="G34" s="10" t="s">
-        <v>487</v>
+        <v>477</v>
       </c>
       <c r="H34" s="8">
         <v>0.8</v>
       </c>
       <c r="I34" s="8" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="53" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -4406,25 +4406,25 @@
         <v>0</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F35" s="8">
         <v>6</v>
       </c>
       <c r="G35" s="10" t="s">
-        <v>488</v>
+        <v>478</v>
       </c>
       <c r="H35" s="8">
         <v>0.89</v>
       </c>
       <c r="I35" s="8" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="53" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -4435,25 +4435,25 @@
         <v>0</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F36" s="8">
         <v>4</v>
       </c>
       <c r="G36" s="10" t="s">
-        <v>489</v>
+        <v>479</v>
       </c>
       <c r="H36" s="8">
-        <v>0.84</v>
+        <v>0.78</v>
       </c>
       <c r="I36" s="8" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="53" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -4464,25 +4464,25 @@
         <v>0</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F37" s="8">
         <v>6</v>
       </c>
       <c r="G37" s="10" t="s">
-        <v>490</v>
+        <v>480</v>
       </c>
       <c r="H37" s="8">
-        <v>0.87</v>
+        <v>0.83</v>
       </c>
       <c r="I37" s="8" t="s">
-        <v>491</v>
+        <v>429</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="53" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -4493,25 +4493,25 @@
         <v>0</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F38" s="8">
         <v>4</v>
       </c>
       <c r="G38" s="10" t="s">
-        <v>492</v>
+        <v>481</v>
       </c>
       <c r="H38" s="8">
         <v>0.8</v>
       </c>
       <c r="I38" s="8" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="53" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -4522,25 +4522,25 @@
         <v>0</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F39" s="8">
         <v>3</v>
       </c>
       <c r="G39" s="10" t="s">
-        <v>493</v>
+        <v>482</v>
       </c>
       <c r="H39" s="8">
         <v>0.95</v>
       </c>
       <c r="I39" s="8" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="53" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -4551,25 +4551,25 @@
         <v>0</v>
       </c>
       <c r="C40" s="13" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E40" s="8" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F40" s="8">
         <v>3</v>
       </c>
       <c r="G40" s="10" t="s">
-        <v>494</v>
+        <v>483</v>
       </c>
       <c r="H40" s="8">
         <v>0.95</v>
       </c>
       <c r="I40" s="8" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="53" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -4577,28 +4577,28 @@
         <v>40</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>517</v>
+        <v>0</v>
       </c>
       <c r="C41" s="13" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>495</v>
+        <v>484</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>577</v>
+        <v>562</v>
       </c>
       <c r="F41" s="8">
         <v>5</v>
       </c>
       <c r="G41" s="8" t="s">
-        <v>496</v>
+        <v>485</v>
       </c>
       <c r="H41" s="8" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="I41" s="8" t="s">
-        <v>491</v>
+        <v>429</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="53" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -4609,25 +4609,25 @@
         <v>0</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>497</v>
+        <v>486</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>498</v>
+        <v>487</v>
       </c>
       <c r="F42" s="8">
         <v>4</v>
       </c>
       <c r="G42" s="10" t="s">
-        <v>499</v>
+        <v>488</v>
       </c>
       <c r="H42" s="8">
         <v>0.95</v>
       </c>
       <c r="I42" s="8" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="53" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -4638,25 +4638,25 @@
         <v>0</v>
       </c>
       <c r="C43" s="13" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F43" s="8">
         <v>5</v>
       </c>
       <c r="G43" s="10" t="s">
-        <v>500</v>
+        <v>489</v>
       </c>
       <c r="H43" s="8">
         <v>0.72</v>
       </c>
       <c r="I43" s="8" t="s">
-        <v>501</v>
+        <v>490</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="53" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -4667,25 +4667,25 @@
         <v>0</v>
       </c>
       <c r="C44" s="13" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E44" s="8" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F44" s="8">
         <v>6</v>
       </c>
       <c r="G44" s="10" t="s">
-        <v>502</v>
+        <v>491</v>
       </c>
       <c r="H44" s="8">
         <v>0.75</v>
       </c>
       <c r="I44" s="8" t="s">
-        <v>501</v>
+        <v>490</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="53" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -4693,28 +4693,28 @@
         <v>44</v>
       </c>
       <c r="B45" s="13" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C45" s="13" t="s">
-        <v>503</v>
+        <v>492</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E45" s="8" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F45" s="8">
         <v>1</v>
       </c>
       <c r="G45" s="10" t="s">
-        <v>504</v>
+        <v>493</v>
       </c>
       <c r="H45" s="8" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="I45" s="8" t="s">
-        <v>505</v>
+        <v>494</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="53" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -4722,28 +4722,28 @@
         <v>45</v>
       </c>
       <c r="B46" s="13" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C46" s="13" t="s">
-        <v>503</v>
+        <v>492</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>506</v>
+        <v>495</v>
       </c>
       <c r="E46" s="8" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F46" s="8">
         <v>3</v>
       </c>
       <c r="G46" s="10" t="s">
-        <v>507</v>
+        <v>496</v>
       </c>
       <c r="H46" s="8">
         <v>0.73</v>
       </c>
       <c r="I46" s="8" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="53" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -4751,28 +4751,28 @@
         <v>46</v>
       </c>
       <c r="B47" s="13" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C47" s="13" t="s">
-        <v>503</v>
+        <v>492</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E47" s="8" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F47" s="8">
         <v>3</v>
       </c>
       <c r="G47" s="10" t="s">
-        <v>508</v>
+        <v>497</v>
       </c>
       <c r="H47" s="8" t="s">
-        <v>509</v>
+        <v>498</v>
       </c>
       <c r="I47" s="8" t="s">
-        <v>510</v>
+        <v>499</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="53" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -4780,28 +4780,28 @@
         <v>47</v>
       </c>
       <c r="B48" s="13" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C48" s="13" t="s">
-        <v>503</v>
+        <v>492</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E48" s="8" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F48" s="8">
         <v>3</v>
       </c>
       <c r="G48" s="10" t="s">
-        <v>511</v>
+        <v>500</v>
       </c>
       <c r="H48" s="8" t="s">
-        <v>512</v>
+        <v>501</v>
       </c>
       <c r="I48" s="8" t="s">
-        <v>510</v>
+        <v>499</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="53" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -4809,28 +4809,28 @@
         <v>48</v>
       </c>
       <c r="B49" s="13" t="s">
-        <v>170</v>
+        <v>505</v>
       </c>
       <c r="C49" s="13" t="s">
-        <v>503</v>
+        <v>492</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>513</v>
+        <v>502</v>
       </c>
       <c r="E49" s="8" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F49" s="8">
         <v>1</v>
       </c>
       <c r="G49" s="10" t="s">
-        <v>514</v>
+        <v>503</v>
       </c>
       <c r="H49" s="8" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="I49" s="8" t="s">
-        <v>515</v>
+        <v>429</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="53" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -4838,28 +4838,28 @@
         <v>49</v>
       </c>
       <c r="B50" s="13" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C50" s="13" t="s">
-        <v>503</v>
+        <v>492</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E50" s="8" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="F50" s="8">
         <v>5</v>
       </c>
       <c r="G50" s="10" t="s">
-        <v>516</v>
+        <v>504</v>
       </c>
       <c r="H50" s="8">
         <v>0.8</v>
       </c>
       <c r="I50" s="8" t="s">
-        <v>510</v>
+        <v>499</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="53" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -4867,28 +4867,28 @@
         <v>50</v>
       </c>
       <c r="B51" s="13" t="s">
-        <v>517</v>
+        <v>505</v>
       </c>
       <c r="C51" s="12" t="s">
-        <v>518</v>
+        <v>506</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E51" s="8" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F51" s="8">
         <v>3</v>
       </c>
       <c r="G51" s="10" t="s">
-        <v>519</v>
+        <v>507</v>
       </c>
       <c r="H51" s="8" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="I51" s="8" t="s">
-        <v>520</v>
+        <v>508</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="53" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -4896,28 +4896,28 @@
         <v>51</v>
       </c>
       <c r="B52" s="13" t="s">
-        <v>517</v>
+        <v>505</v>
       </c>
       <c r="C52" s="12" t="s">
-        <v>518</v>
+        <v>506</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E52" s="8" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F52" s="8">
         <v>2</v>
       </c>
       <c r="G52" s="11" t="s">
-        <v>521</v>
+        <v>509</v>
       </c>
       <c r="H52" s="8">
         <v>0.86</v>
       </c>
       <c r="I52" s="8" t="s">
-        <v>520</v>
+        <v>508</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="53" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -4925,28 +4925,28 @@
         <v>52</v>
       </c>
       <c r="B53" s="13" t="s">
-        <v>517</v>
+        <v>505</v>
       </c>
       <c r="C53" s="12" t="s">
-        <v>518</v>
+        <v>506</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E53" s="8" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F53" s="8">
         <v>5</v>
       </c>
       <c r="G53" s="10" t="s">
-        <v>522</v>
+        <v>510</v>
       </c>
       <c r="H53" s="8" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="I53" s="8" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="53" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -4954,28 +4954,28 @@
         <v>53</v>
       </c>
       <c r="B54" s="13" t="s">
-        <v>517</v>
+        <v>505</v>
       </c>
       <c r="C54" s="12" t="s">
-        <v>518</v>
+        <v>506</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E54" s="8" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F54" s="8">
         <v>4</v>
       </c>
       <c r="G54" s="10" t="s">
-        <v>523</v>
+        <v>511</v>
       </c>
       <c r="H54" s="8" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="I54" s="8" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="53" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -4983,28 +4983,28 @@
         <v>54</v>
       </c>
       <c r="B55" s="13" t="s">
-        <v>517</v>
+        <v>505</v>
       </c>
       <c r="C55" s="12" t="s">
-        <v>518</v>
+        <v>506</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E55" s="8" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F55" s="8">
         <v>5</v>
       </c>
       <c r="G55" s="10" t="s">
-        <v>524</v>
+        <v>512</v>
       </c>
       <c r="H55" s="8" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="I55" s="8" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="53" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -5012,28 +5012,28 @@
         <v>55</v>
       </c>
       <c r="B56" s="13" t="s">
-        <v>517</v>
+        <v>505</v>
       </c>
       <c r="C56" s="12" t="s">
-        <v>518</v>
+        <v>506</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E56" s="8" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F56" s="8">
         <v>5</v>
       </c>
       <c r="G56" s="10" t="s">
-        <v>525</v>
+        <v>513</v>
       </c>
       <c r="H56" s="8" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="I56" s="8" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="53" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -5041,28 +5041,28 @@
         <v>56</v>
       </c>
       <c r="B57" s="13" t="s">
-        <v>517</v>
+        <v>505</v>
       </c>
       <c r="C57" s="12" t="s">
-        <v>518</v>
+        <v>506</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E57" s="8" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F57" s="8">
         <v>3</v>
       </c>
       <c r="G57" s="10" t="s">
-        <v>526</v>
+        <v>514</v>
       </c>
       <c r="H57" s="8" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="I57" s="8" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="53" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -5070,28 +5070,28 @@
         <v>57</v>
       </c>
       <c r="B58" s="13" t="s">
-        <v>517</v>
+        <v>505</v>
       </c>
       <c r="C58" s="12" t="s">
-        <v>518</v>
+        <v>506</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E58" s="8" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F58" s="8">
         <v>5</v>
       </c>
       <c r="G58" s="10" t="s">
-        <v>527</v>
+        <v>515</v>
       </c>
       <c r="H58" s="8">
-        <v>0.85</v>
+        <v>0.81</v>
       </c>
       <c r="I58" s="8" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="53" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -5099,28 +5099,28 @@
         <v>58</v>
       </c>
       <c r="B59" s="13" t="s">
-        <v>517</v>
+        <v>505</v>
       </c>
       <c r="C59" s="12" t="s">
-        <v>518</v>
+        <v>506</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E59" s="8" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F59" s="8">
         <v>5</v>
       </c>
       <c r="G59" s="10" t="s">
-        <v>528</v>
+        <v>516</v>
       </c>
       <c r="H59" s="8">
-        <v>0.81</v>
+        <v>0.8</v>
       </c>
       <c r="I59" s="8" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="53" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -5128,28 +5128,28 @@
         <v>59</v>
       </c>
       <c r="B60" s="13" t="s">
-        <v>517</v>
+        <v>505</v>
       </c>
       <c r="C60" s="12" t="s">
-        <v>518</v>
+        <v>506</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E60" s="8" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F60" s="8">
         <v>4</v>
       </c>
       <c r="G60" s="10" t="s">
-        <v>529</v>
+        <v>517</v>
       </c>
       <c r="H60" s="8" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="I60" s="8" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="53" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -5157,28 +5157,28 @@
         <v>60</v>
       </c>
       <c r="B61" s="13" t="s">
-        <v>517</v>
+        <v>505</v>
       </c>
       <c r="C61" s="12" t="s">
+        <v>506</v>
+      </c>
+      <c r="D61" s="8" t="s">
         <v>518</v>
       </c>
-      <c r="D61" s="8" t="s">
-        <v>530</v>
-      </c>
       <c r="E61" s="8" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F61" s="8">
         <v>2</v>
       </c>
       <c r="G61" s="10" t="s">
-        <v>531</v>
+        <v>519</v>
       </c>
       <c r="H61" s="8" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="I61" s="8" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="62" spans="1:9" ht="53" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -5186,28 +5186,28 @@
         <v>61</v>
       </c>
       <c r="B62" s="13" t="s">
-        <v>517</v>
+        <v>505</v>
       </c>
       <c r="C62" s="12" t="s">
-        <v>518</v>
+        <v>506</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E62" s="8" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F62" s="8">
         <v>4</v>
       </c>
       <c r="G62" s="10" t="s">
-        <v>532</v>
+        <v>520</v>
       </c>
       <c r="H62" s="8">
         <v>0.91</v>
       </c>
       <c r="I62" s="8" t="s">
-        <v>533</v>
+        <v>429</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="53" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -5215,28 +5215,28 @@
         <v>62</v>
       </c>
       <c r="B63" s="13" t="s">
-        <v>517</v>
+        <v>505</v>
       </c>
       <c r="C63" s="12" t="s">
-        <v>518</v>
+        <v>506</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E63" s="8" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F63" s="8">
         <v>4</v>
       </c>
       <c r="G63" s="10" t="s">
-        <v>534</v>
+        <v>521</v>
       </c>
       <c r="H63" s="8">
         <v>0.94</v>
       </c>
       <c r="I63" s="8" t="s">
-        <v>533</v>
+        <v>429</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="53" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -5244,28 +5244,28 @@
         <v>63</v>
       </c>
       <c r="B64" s="13" t="s">
-        <v>517</v>
+        <v>505</v>
       </c>
       <c r="C64" s="12" t="s">
-        <v>518</v>
+        <v>506</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E64" s="8" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F64" s="8">
         <v>4</v>
       </c>
       <c r="G64" s="10" t="s">
-        <v>535</v>
+        <v>522</v>
       </c>
       <c r="H64" s="8">
         <v>0.82</v>
       </c>
       <c r="I64" s="8" t="s">
-        <v>533</v>
+        <v>429</v>
       </c>
     </row>
     <row r="65" spans="1:9" ht="53" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -5273,28 +5273,28 @@
         <v>64</v>
       </c>
       <c r="B65" s="13" t="s">
-        <v>517</v>
+        <v>505</v>
       </c>
       <c r="C65" s="12" t="s">
-        <v>518</v>
+        <v>506</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E65" s="8" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F65" s="8">
         <v>7</v>
       </c>
       <c r="G65" s="10" t="s">
-        <v>536</v>
+        <v>523</v>
       </c>
       <c r="H65" s="8">
         <v>0.87</v>
       </c>
       <c r="I65" s="8" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="66" spans="1:9" ht="53" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -5302,28 +5302,28 @@
         <v>65</v>
       </c>
       <c r="B66" s="13" t="s">
-        <v>517</v>
+        <v>505</v>
       </c>
       <c r="C66" s="12" t="s">
-        <v>518</v>
+        <v>506</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E66" s="8" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F66" s="8">
         <v>12</v>
       </c>
       <c r="G66" s="10" t="s">
-        <v>537</v>
+        <v>524</v>
       </c>
       <c r="H66" s="8">
-        <v>0.71</v>
+        <v>0.7</v>
       </c>
       <c r="I66" s="8" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="67" spans="1:9" ht="53" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -5331,28 +5331,28 @@
         <v>66</v>
       </c>
       <c r="B67" s="13" t="s">
-        <v>517</v>
+        <v>505</v>
       </c>
       <c r="C67" s="12" t="s">
-        <v>518</v>
+        <v>506</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>538</v>
+        <v>525</v>
       </c>
       <c r="E67" s="8" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F67" s="8">
         <v>11</v>
       </c>
       <c r="G67" s="10" t="s">
-        <v>539</v>
+        <v>526</v>
       </c>
       <c r="H67" s="8" t="s">
-        <v>540</v>
+        <v>527</v>
       </c>
       <c r="I67" s="8" t="s">
-        <v>541</v>
+        <v>528</v>
       </c>
     </row>
     <row r="68" spans="1:9" ht="53" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -5360,28 +5360,28 @@
         <v>67</v>
       </c>
       <c r="B68" s="13" t="s">
-        <v>517</v>
+        <v>505</v>
       </c>
       <c r="C68" s="12" t="s">
-        <v>518</v>
+        <v>506</v>
       </c>
       <c r="D68" s="8" t="s">
-        <v>542</v>
+        <v>529</v>
       </c>
       <c r="E68" s="8" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F68" s="8">
         <v>11</v>
       </c>
       <c r="G68" s="10" t="s">
-        <v>543</v>
+        <v>530</v>
       </c>
       <c r="H68" s="8" t="s">
-        <v>544</v>
+        <v>531</v>
       </c>
       <c r="I68" s="8" t="s">
-        <v>541</v>
+        <v>528</v>
       </c>
     </row>
     <row r="69" spans="1:9" ht="53" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -5389,28 +5389,28 @@
         <v>68</v>
       </c>
       <c r="B69" s="13" t="s">
-        <v>517</v>
+        <v>168</v>
       </c>
       <c r="C69" s="12" t="s">
-        <v>518</v>
+        <v>506</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E69" s="8" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F69" s="8">
         <v>5</v>
       </c>
       <c r="G69" s="10" t="s">
-        <v>545</v>
+        <v>532</v>
       </c>
       <c r="H69" s="8">
         <v>0.65</v>
       </c>
       <c r="I69" s="8" t="s">
-        <v>546</v>
+        <v>499</v>
       </c>
     </row>
     <row r="70" spans="1:9" ht="53" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -5418,28 +5418,28 @@
         <v>69</v>
       </c>
       <c r="B70" s="13" t="s">
-        <v>517</v>
+        <v>505</v>
       </c>
       <c r="C70" s="12" t="s">
-        <v>518</v>
+        <v>506</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E70" s="8" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F70" s="8">
         <v>4</v>
       </c>
       <c r="G70" s="10" t="s">
-        <v>547</v>
+        <v>533</v>
       </c>
       <c r="H70" s="8">
         <v>0.9</v>
       </c>
       <c r="I70" s="8" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="71" spans="1:9" ht="53" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -5447,28 +5447,28 @@
         <v>70</v>
       </c>
       <c r="B71" s="13" t="s">
-        <v>517</v>
+        <v>505</v>
       </c>
       <c r="C71" s="12" t="s">
-        <v>518</v>
+        <v>506</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E71" s="8" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F71" s="8" t="s">
-        <v>580</v>
+        <v>564</v>
       </c>
       <c r="G71" s="10" t="s">
-        <v>579</v>
+        <v>563</v>
       </c>
       <c r="H71" s="8" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="I71" s="8" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="72" spans="1:9" ht="53" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -5476,28 +5476,28 @@
         <v>71</v>
       </c>
       <c r="B72" s="13" t="s">
-        <v>517</v>
+        <v>505</v>
       </c>
       <c r="C72" s="12" t="s">
-        <v>518</v>
+        <v>506</v>
       </c>
       <c r="D72" s="8" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E72" s="8" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F72" s="8">
         <v>4</v>
       </c>
       <c r="G72" s="10" t="s">
-        <v>548</v>
-      </c>
-      <c r="H72" s="8">
-        <v>0.94</v>
+        <v>534</v>
+      </c>
+      <c r="H72" s="8" t="s">
+        <v>582</v>
       </c>
       <c r="I72" s="8" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="73" spans="1:9" ht="53" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -5505,28 +5505,28 @@
         <v>72</v>
       </c>
       <c r="B73" s="13" t="s">
-        <v>517</v>
+        <v>505</v>
       </c>
       <c r="C73" s="12" t="s">
-        <v>518</v>
+        <v>506</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E73" s="8" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F73" s="8">
         <v>3</v>
       </c>
       <c r="G73" s="10" t="s">
-        <v>549</v>
-      </c>
-      <c r="H73" s="8">
-        <v>0.87</v>
+        <v>535</v>
+      </c>
+      <c r="H73" s="8" t="s">
+        <v>583</v>
       </c>
       <c r="I73" s="8" t="s">
-        <v>550</v>
+        <v>536</v>
       </c>
     </row>
     <row r="74" spans="1:9" ht="53" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -5537,25 +5537,25 @@
         <v>0</v>
       </c>
       <c r="C74" s="29" t="s">
-        <v>551</v>
+        <v>537</v>
       </c>
       <c r="D74" s="8" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E74" s="8" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F74" s="8">
         <v>3</v>
       </c>
       <c r="G74" s="10" t="s">
-        <v>552</v>
-      </c>
-      <c r="H74" s="8" t="s">
-        <v>207</v>
+        <v>538</v>
+      </c>
+      <c r="H74" s="8">
+        <v>0.78</v>
       </c>
       <c r="I74" s="8" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="75" spans="1:9" ht="53" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -5563,28 +5563,28 @@
         <v>74</v>
       </c>
       <c r="B75" s="29" t="s">
-        <v>517</v>
+        <v>505</v>
       </c>
       <c r="C75" s="29" t="s">
-        <v>551</v>
+        <v>537</v>
       </c>
       <c r="D75" s="8" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E75" s="8" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F75" s="8">
         <v>2</v>
       </c>
       <c r="G75" s="10" t="s">
-        <v>553</v>
+        <v>539</v>
       </c>
       <c r="H75" s="8" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="I75" s="8" t="s">
-        <v>596</v>
+        <v>584</v>
       </c>
     </row>
     <row r="76" spans="1:9" ht="53" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -5595,25 +5595,25 @@
         <v>0</v>
       </c>
       <c r="C76" s="29" t="s">
-        <v>551</v>
+        <v>537</v>
       </c>
       <c r="D76" s="8" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E76" s="8" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F76" s="8">
         <v>1</v>
       </c>
       <c r="G76" s="10" t="s">
-        <v>554</v>
+        <v>540</v>
       </c>
       <c r="H76" s="8" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="I76" s="8" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="77" spans="1:9" ht="53" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -5624,25 +5624,25 @@
         <v>0</v>
       </c>
       <c r="C77" s="29" t="s">
-        <v>551</v>
+        <v>537</v>
       </c>
       <c r="D77" s="8" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E77" s="8" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F77" s="8">
         <v>1</v>
       </c>
       <c r="G77" s="10" t="s">
-        <v>555</v>
+        <v>541</v>
       </c>
       <c r="H77" s="8" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="I77" s="8" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="78" spans="1:9" ht="53" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -5650,28 +5650,28 @@
         <v>77</v>
       </c>
       <c r="B78" s="29" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C78" s="29" t="s">
-        <v>551</v>
+        <v>537</v>
       </c>
       <c r="D78" s="8" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E78" s="8" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F78" s="8">
         <v>2</v>
       </c>
       <c r="G78" s="10" t="s">
-        <v>556</v>
+        <v>542</v>
       </c>
       <c r="H78" s="8" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="I78" s="8" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="79" spans="1:9" ht="53" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -5682,25 +5682,25 @@
         <v>0</v>
       </c>
       <c r="C79" s="29" t="s">
-        <v>551</v>
+        <v>537</v>
       </c>
       <c r="D79" s="8" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E79" s="8" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F79" s="8">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G79" s="10" t="s">
-        <v>557</v>
+        <v>543</v>
       </c>
       <c r="H79" s="8">
         <v>0.9</v>
       </c>
       <c r="I79" s="8" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="80" spans="1:9" ht="53" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -5711,25 +5711,25 @@
         <v>1</v>
       </c>
       <c r="C80" s="29" t="s">
-        <v>551</v>
+        <v>537</v>
       </c>
       <c r="D80" s="8" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="E80" s="8" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F80" s="8">
         <v>1</v>
       </c>
       <c r="G80" s="10" t="s">
-        <v>558</v>
+        <v>544</v>
       </c>
       <c r="H80" s="8" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="I80" s="8" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="81" spans="1:9" ht="53" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -5740,25 +5740,25 @@
         <v>1</v>
       </c>
       <c r="C81" s="29" t="s">
-        <v>551</v>
+        <v>537</v>
       </c>
       <c r="D81" s="8" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E81" s="8" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F81" s="8">
         <v>1</v>
       </c>
       <c r="G81" s="10" t="s">
-        <v>559</v>
+        <v>545</v>
       </c>
       <c r="H81" s="8" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="I81" s="8" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="82" spans="1:9" ht="53" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -5769,25 +5769,25 @@
         <v>1</v>
       </c>
       <c r="C82" s="29" t="s">
-        <v>551</v>
+        <v>537</v>
       </c>
       <c r="D82" s="8" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E82" s="8" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="F82" s="8">
         <v>3</v>
       </c>
       <c r="G82" s="10" t="s">
-        <v>560</v>
+        <v>546</v>
       </c>
       <c r="H82" s="8">
         <v>0.56000000000000005</v>
       </c>
       <c r="I82" s="8" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="83" spans="1:9" ht="53" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -5798,25 +5798,25 @@
         <v>0</v>
       </c>
       <c r="C83" s="29" t="s">
-        <v>551</v>
+        <v>537</v>
       </c>
       <c r="D83" s="8" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E83" s="8" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="F83" s="8">
         <v>6</v>
       </c>
       <c r="G83" s="10" t="s">
-        <v>561</v>
+        <v>547</v>
       </c>
       <c r="H83" s="8" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="I83" s="8" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="84" spans="1:9" ht="53" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -5824,28 +5824,28 @@
         <v>83</v>
       </c>
       <c r="B84" s="29" t="s">
-        <v>0</v>
+        <v>168</v>
       </c>
       <c r="C84" s="29" t="s">
-        <v>551</v>
+        <v>537</v>
       </c>
       <c r="D84" s="9" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E84" s="8" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F84" s="8">
         <v>1</v>
       </c>
       <c r="G84" s="10" t="s">
-        <v>562</v>
+        <v>548</v>
       </c>
       <c r="H84" s="8" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="I84" s="8" t="s">
-        <v>595</v>
+        <v>575</v>
       </c>
     </row>
     <row r="85" spans="1:9" ht="53" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -5853,28 +5853,28 @@
         <v>84</v>
       </c>
       <c r="B85" s="29" t="s">
-        <v>517</v>
+        <v>505</v>
       </c>
       <c r="C85" s="29" t="s">
-        <v>551</v>
+        <v>537</v>
       </c>
       <c r="D85" s="8" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E85" s="8" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="F85" s="8">
         <v>7</v>
       </c>
       <c r="G85" s="10" t="s">
-        <v>563</v>
+        <v>549</v>
       </c>
       <c r="H85" s="8" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="I85" s="8" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="86" spans="1:9" ht="53" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -5885,25 +5885,25 @@
         <v>1</v>
       </c>
       <c r="C86" s="29" t="s">
-        <v>551</v>
+        <v>537</v>
       </c>
       <c r="D86" s="8" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E86" s="8" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="F86" s="8">
         <v>2</v>
       </c>
       <c r="G86" s="10" t="s">
-        <v>564</v>
+        <v>550</v>
       </c>
       <c r="H86" s="8">
         <v>0.79</v>
       </c>
       <c r="I86" s="8" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="87" spans="1:9" ht="53" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -5914,25 +5914,25 @@
         <v>0</v>
       </c>
       <c r="C87" s="29" t="s">
-        <v>551</v>
+        <v>537</v>
       </c>
       <c r="D87" s="8" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E87" s="8" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="F87" s="8">
         <v>10</v>
       </c>
       <c r="G87" s="10" t="s">
-        <v>566</v>
+        <v>552</v>
       </c>
       <c r="H87" s="8">
         <v>0.91</v>
       </c>
       <c r="I87" s="8" t="s">
-        <v>594</v>
+        <v>490</v>
       </c>
     </row>
     <row r="88" spans="1:9" ht="53" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -5940,28 +5940,28 @@
         <v>87</v>
       </c>
       <c r="B88" s="29" t="s">
-        <v>517</v>
+        <v>505</v>
       </c>
       <c r="C88" s="29" t="s">
-        <v>551</v>
+        <v>537</v>
       </c>
       <c r="D88" s="8" t="s">
-        <v>567</v>
+        <v>553</v>
       </c>
       <c r="E88" s="8" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F88" s="8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G88" s="8" t="s">
-        <v>568</v>
+        <v>554</v>
       </c>
       <c r="H88" s="8">
         <v>0.83</v>
       </c>
       <c r="I88" s="8" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="89" spans="1:9" ht="53" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -5972,25 +5972,25 @@
         <v>0</v>
       </c>
       <c r="C89" s="29" t="s">
-        <v>551</v>
+        <v>537</v>
       </c>
       <c r="D89" s="8" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E89" s="8" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F89" s="8">
         <v>3</v>
       </c>
       <c r="G89" s="10" t="s">
-        <v>569</v>
+        <v>555</v>
       </c>
       <c r="H89" s="8">
         <v>0.94</v>
       </c>
       <c r="I89" s="8" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="90" spans="1:9" ht="53" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -5998,28 +5998,28 @@
         <v>89</v>
       </c>
       <c r="B90" s="29" t="s">
-        <v>517</v>
+        <v>505</v>
       </c>
       <c r="C90" s="29" t="s">
-        <v>551</v>
+        <v>537</v>
       </c>
       <c r="D90" s="31" t="s">
-        <v>570</v>
+        <v>556</v>
       </c>
       <c r="E90" s="31" t="s">
-        <v>571</v>
+        <v>557</v>
       </c>
       <c r="F90" s="29">
         <v>4</v>
       </c>
       <c r="G90" s="32" t="s">
-        <v>572</v>
+        <v>558</v>
       </c>
       <c r="H90" s="29">
         <v>0.83</v>
       </c>
       <c r="I90" s="29" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="91" spans="1:9" ht="53" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -6027,28 +6027,28 @@
         <v>90</v>
       </c>
       <c r="B91" s="36" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C91" s="36" t="s">
-        <v>551</v>
+        <v>537</v>
       </c>
       <c r="D91" s="35" t="s">
-        <v>581</v>
+        <v>565</v>
       </c>
       <c r="E91" s="35" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F91" s="34">
         <v>3</v>
       </c>
       <c r="G91" s="10" t="s">
-        <v>565</v>
+        <v>551</v>
       </c>
       <c r="H91" s="34">
-        <v>0.82</v>
+        <v>0.85</v>
       </c>
       <c r="I91" s="34" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
     </row>
     <row r="92" spans="1:9" ht="53" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -6056,32 +6056,32 @@
         <v>91</v>
       </c>
       <c r="B92" s="8" t="s">
-        <v>517</v>
+        <v>0</v>
       </c>
       <c r="C92" s="30" t="s">
-        <v>551</v>
+        <v>537</v>
       </c>
       <c r="D92" s="9" t="s">
-        <v>573</v>
+        <v>559</v>
       </c>
       <c r="E92" s="9" t="s">
-        <v>574</v>
+        <v>560</v>
       </c>
       <c r="F92" s="8">
         <v>6</v>
       </c>
       <c r="G92" s="10" t="s">
-        <v>575</v>
+        <v>561</v>
       </c>
       <c r="H92" s="8">
         <v>0.93</v>
       </c>
       <c r="I92" s="8" t="s">
-        <v>593</v>
+        <v>574</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I1" xr:uid="{BA452CA6-871A-344E-94C7-7B2AFA85509D}"/>
+  <autoFilter ref="A1:I92" xr:uid="{BA452CA6-871A-344E-94C7-7B2AFA85509D}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -6090,8 +6090,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10180BE9-1079-A845-8A7C-CC59A2B3DC8C}">
   <dimension ref="A1:N329"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A89" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D104" sqref="D104"/>
+    <sheetView tabSelected="1" topLeftCell="D46" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G50" sqref="G50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -6108,13 +6108,13 @@
   <sheetData>
     <row r="1" spans="1:14" s="1" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="27" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B1" s="27" t="s">
         <v>10</v>
       </c>
       <c r="C1" s="27" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D1" s="27" t="s">
         <v>11</v>
@@ -6126,10 +6126,10 @@
         <v>12</v>
       </c>
       <c r="G1" s="27" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="H1" s="28" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:14" s="1" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -6140,22 +6140,22 @@
         <v>53</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D2" s="15" t="s">
         <v>17</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F2" s="15" t="s">
         <v>18</v>
       </c>
       <c r="G2" s="15" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H2" s="15" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="3" spans="1:14" s="1" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -6166,10 +6166,10 @@
         <v>53</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="E3" s="15" t="s">
         <v>3</v>
@@ -6178,10 +6178,10 @@
         <v>13</v>
       </c>
       <c r="G3" s="15" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H3" s="16" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:14" s="1" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -6192,7 +6192,7 @@
         <v>53</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D4" s="15" t="s">
         <v>17</v>
@@ -6204,10 +6204,10 @@
         <v>15</v>
       </c>
       <c r="G4" s="15" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H4" s="15" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="5" spans="1:14" s="1" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -6218,7 +6218,7 @@
         <v>53</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D5" s="15" t="s">
         <v>17</v>
@@ -6230,10 +6230,10 @@
         <v>14</v>
       </c>
       <c r="G5" s="15" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H5" s="15" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="6" spans="1:14" s="1" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -6244,7 +6244,7 @@
         <v>53</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D6" s="15" t="s">
         <v>17</v>
@@ -6253,13 +6253,13 @@
         <v>7</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>48</v>
+        <v>587</v>
       </c>
       <c r="G6" s="15" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H6" s="15" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="7" spans="1:14" s="1" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -6270,7 +6270,7 @@
         <v>54</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D7" s="15" t="s">
         <v>17</v>
@@ -6282,10 +6282,10 @@
         <v>5</v>
       </c>
       <c r="G7" s="15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H7" s="16" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="8" spans="1:14" s="1" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -6296,22 +6296,22 @@
         <v>53</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F8" s="16" t="s">
         <v>48</v>
       </c>
       <c r="G8" s="16" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="H8" s="16" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="9" spans="1:14" s="1" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -6322,7 +6322,7 @@
         <v>53</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D9" s="15" t="s">
         <v>2</v>
@@ -6334,10 +6334,10 @@
         <v>9</v>
       </c>
       <c r="G9" s="15" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H9" s="16" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="10" spans="1:14" s="1" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -6348,7 +6348,7 @@
         <v>53</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D10" s="15" t="s">
         <v>2</v>
@@ -6357,13 +6357,13 @@
         <v>32</v>
       </c>
       <c r="F10" s="15" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="G10" s="15" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H10" s="16" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="11" spans="1:14" s="1" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -6374,7 +6374,7 @@
         <v>53</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D11" s="15" t="s">
         <v>2</v>
@@ -6386,10 +6386,10 @@
         <v>8</v>
       </c>
       <c r="G11" s="15" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H11" s="16" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12" spans="1:14" s="1" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -6400,7 +6400,7 @@
         <v>54</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D12" s="15" t="s">
         <v>2</v>
@@ -6415,7 +6415,7 @@
         <v>56</v>
       </c>
       <c r="H12" s="16" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="13" spans="1:14" s="1" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -6426,7 +6426,7 @@
         <v>54</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D13" s="15" t="s">
         <v>2</v>
@@ -6441,7 +6441,7 @@
         <v>55</v>
       </c>
       <c r="H13" s="16" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="14" spans="1:14" s="1" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -6452,7 +6452,7 @@
         <v>53</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D14" s="16" t="s">
         <v>2</v>
@@ -6464,10 +6464,10 @@
         <v>8</v>
       </c>
       <c r="G14" s="16" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="H14" s="16" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
@@ -6484,7 +6484,7 @@
         <v>53</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D15" s="15" t="s">
         <v>1</v>
@@ -6496,10 +6496,10 @@
         <v>8</v>
       </c>
       <c r="G15" s="15" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H15" s="16" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
@@ -6516,7 +6516,7 @@
         <v>53</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D16" s="15" t="s">
         <v>1</v>
@@ -6528,10 +6528,10 @@
         <v>5</v>
       </c>
       <c r="G16" s="15" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H16" s="16" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
@@ -6548,7 +6548,7 @@
         <v>53</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D17" s="15" t="s">
         <v>1</v>
@@ -6560,10 +6560,10 @@
         <v>5</v>
       </c>
       <c r="G17" s="15" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H17" s="16" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
@@ -6580,7 +6580,7 @@
         <v>53</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D18" s="15" t="s">
         <v>1</v>
@@ -6595,7 +6595,7 @@
         <v>19</v>
       </c>
       <c r="H18" s="16" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
@@ -6612,7 +6612,7 @@
         <v>53</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D19" s="15" t="s">
         <v>1</v>
@@ -6624,10 +6624,10 @@
         <v>21</v>
       </c>
       <c r="G19" s="15" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H19" s="16" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
@@ -6644,7 +6644,7 @@
         <v>53</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D20" s="15" t="s">
         <v>1</v>
@@ -6656,10 +6656,10 @@
         <v>21</v>
       </c>
       <c r="G20" s="15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H20" s="16" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
@@ -6676,7 +6676,7 @@
         <v>53</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D21" s="15" t="s">
         <v>1</v>
@@ -6688,10 +6688,10 @@
         <v>20</v>
       </c>
       <c r="G21" s="15" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H21" s="16" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
@@ -6708,7 +6708,7 @@
         <v>53</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D22" s="15" t="s">
         <v>1</v>
@@ -6717,13 +6717,13 @@
         <v>43</v>
       </c>
       <c r="F22" s="15" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="G22" s="15" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H22" s="16" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
@@ -6740,7 +6740,7 @@
         <v>53</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D23" s="15" t="s">
         <v>1</v>
@@ -6752,10 +6752,10 @@
         <v>21</v>
       </c>
       <c r="G23" s="15" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H23" s="16" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
@@ -6772,7 +6772,7 @@
         <v>53</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D24" s="15" t="s">
         <v>1</v>
@@ -6787,7 +6787,7 @@
         <v>22</v>
       </c>
       <c r="H24" s="16" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="25" spans="1:14" s="1" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -6798,7 +6798,7 @@
         <v>53</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D25" s="15" t="s">
         <v>1</v>
@@ -6807,13 +6807,13 @@
         <v>32</v>
       </c>
       <c r="F25" s="15" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="G25" s="15" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H25" s="16" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="26" spans="1:14" s="1" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -6824,7 +6824,7 @@
         <v>53</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D26" s="15" t="s">
         <v>1</v>
@@ -6836,10 +6836,10 @@
         <v>20</v>
       </c>
       <c r="G26" s="15" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H26" s="16" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="I26" s="2"/>
     </row>
@@ -6851,7 +6851,7 @@
         <v>54</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D27" s="15" t="s">
         <v>1</v>
@@ -6860,13 +6860,13 @@
         <v>4</v>
       </c>
       <c r="F27" s="15" t="s">
-        <v>20</v>
+        <v>588</v>
       </c>
       <c r="G27" s="15" t="s">
         <v>57</v>
       </c>
       <c r="H27" s="16" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I27" s="2"/>
     </row>
@@ -6878,7 +6878,7 @@
         <v>54</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D28" s="15" t="s">
         <v>1</v>
@@ -6887,13 +6887,13 @@
         <v>32</v>
       </c>
       <c r="F28" s="15" t="s">
-        <v>5</v>
+        <v>591</v>
       </c>
       <c r="G28" s="15" t="s">
         <v>58</v>
       </c>
       <c r="H28" s="16" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="I28" s="2"/>
     </row>
@@ -6905,7 +6905,7 @@
         <v>54</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D29" s="15" t="s">
         <v>1</v>
@@ -6917,10 +6917,10 @@
         <v>9</v>
       </c>
       <c r="G29" s="15" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H29" s="16" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="I29" s="2"/>
     </row>
@@ -6932,7 +6932,7 @@
         <v>54</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D30" s="15" t="s">
         <v>1</v>
@@ -6944,10 +6944,10 @@
         <v>9</v>
       </c>
       <c r="G30" s="15" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H30" s="16" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="I30" s="2"/>
     </row>
@@ -6959,22 +6959,22 @@
         <v>53</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D31" s="15" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E31" s="15" t="s">
         <v>4</v>
       </c>
       <c r="F31" s="15" t="s">
-        <v>586</v>
+        <v>568</v>
       </c>
       <c r="G31" s="15" t="s">
         <v>46</v>
       </c>
       <c r="H31" s="16" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="32" spans="1:14" s="1" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -6985,7 +6985,7 @@
         <v>53</v>
       </c>
       <c r="C32" s="15" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D32" s="15" t="s">
         <v>1</v>
@@ -6994,13 +6994,13 @@
         <v>4</v>
       </c>
       <c r="F32" s="15" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
       <c r="G32" s="15" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="H32" s="16" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="33" spans="1:12" s="1" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -7011,7 +7011,7 @@
         <v>53</v>
       </c>
       <c r="C33" s="15" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D33" s="15" t="s">
         <v>1</v>
@@ -7020,13 +7020,13 @@
         <v>4</v>
       </c>
       <c r="F33" s="15" t="s">
-        <v>587</v>
+        <v>568</v>
       </c>
       <c r="G33" s="15" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H33" s="16" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="34" spans="1:12" s="1" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -7037,7 +7037,7 @@
         <v>53</v>
       </c>
       <c r="C34" s="15" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D34" s="15" t="s">
         <v>1</v>
@@ -7049,10 +7049,10 @@
         <v>589</v>
       </c>
       <c r="G34" s="15" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H34" s="16" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="35" spans="1:12" s="1" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -7063,22 +7063,22 @@
         <v>53</v>
       </c>
       <c r="C35" s="15" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D35" s="15" t="s">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="E35" s="15" t="s">
         <v>4</v>
       </c>
       <c r="F35" s="15" t="s">
-        <v>590</v>
+        <v>571</v>
       </c>
       <c r="G35" s="15" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="H35" s="16" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="36" spans="1:12" s="1" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -7089,7 +7089,7 @@
         <v>53</v>
       </c>
       <c r="C36" s="15" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D36" s="15" t="s">
         <v>1</v>
@@ -7098,13 +7098,13 @@
         <v>4</v>
       </c>
       <c r="F36" s="15" t="s">
-        <v>586</v>
+        <v>590</v>
       </c>
       <c r="G36" s="15" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="H36" s="16" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="37" spans="1:12" s="1" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -7115,7 +7115,7 @@
         <v>53</v>
       </c>
       <c r="C37" s="15" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D37" s="15" t="s">
         <v>1</v>
@@ -7124,13 +7124,13 @@
         <v>32</v>
       </c>
       <c r="F37" s="15" t="s">
-        <v>591</v>
+        <v>572</v>
       </c>
       <c r="G37" s="15" t="s">
         <v>50</v>
       </c>
       <c r="H37" s="16" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="38" spans="1:12" s="1" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -7141,7 +7141,7 @@
         <v>53</v>
       </c>
       <c r="C38" s="15" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D38" s="15" t="s">
         <v>1</v>
@@ -7150,13 +7150,13 @@
         <v>32</v>
       </c>
       <c r="F38" s="15" t="s">
-        <v>591</v>
+        <v>572</v>
       </c>
       <c r="G38" s="15" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="H38" s="16" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="39" spans="1:12" s="1" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -7167,7 +7167,7 @@
         <v>53</v>
       </c>
       <c r="C39" s="15" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D39" s="15" t="s">
         <v>0</v>
@@ -7179,10 +7179,10 @@
         <v>21</v>
       </c>
       <c r="G39" s="15" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H39" s="16" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="40" spans="1:12" s="1" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -7193,7 +7193,7 @@
         <v>53</v>
       </c>
       <c r="C40" s="15" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D40" s="15" t="s">
         <v>0</v>
@@ -7208,7 +7208,7 @@
         <v>24</v>
       </c>
       <c r="H40" s="16" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="41" spans="1:12" s="1" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -7219,7 +7219,7 @@
         <v>53</v>
       </c>
       <c r="C41" s="15" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D41" s="15" t="s">
         <v>0</v>
@@ -7231,10 +7231,10 @@
         <v>21</v>
       </c>
       <c r="G41" s="15" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H41" s="16" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="42" spans="1:12" s="1" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -7245,7 +7245,7 @@
         <v>53</v>
       </c>
       <c r="C42" s="15" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D42" s="15" t="s">
         <v>0</v>
@@ -7257,10 +7257,10 @@
         <v>25</v>
       </c>
       <c r="G42" s="15" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H42" s="16" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="L42" s="2"/>
     </row>
@@ -7272,7 +7272,7 @@
         <v>53</v>
       </c>
       <c r="C43" s="15" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D43" s="15" t="s">
         <v>0</v>
@@ -7287,7 +7287,7 @@
         <v>29</v>
       </c>
       <c r="H43" s="16" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="I43" s="2"/>
       <c r="L43" s="2"/>
@@ -7300,7 +7300,7 @@
         <v>53</v>
       </c>
       <c r="C44" s="15" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D44" s="15" t="s">
         <v>0</v>
@@ -7309,13 +7309,13 @@
         <v>4</v>
       </c>
       <c r="F44" s="15" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G44" s="15" t="s">
         <v>30</v>
       </c>
       <c r="H44" s="16" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="L44" s="2"/>
     </row>
@@ -7327,7 +7327,7 @@
         <v>53</v>
       </c>
       <c r="C45" s="15" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D45" s="15" t="s">
         <v>0</v>
@@ -7339,10 +7339,10 @@
         <v>26</v>
       </c>
       <c r="G45" s="15" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H45" s="16" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="J45" s="2"/>
     </row>
@@ -7354,7 +7354,7 @@
         <v>53</v>
       </c>
       <c r="C46" s="15" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D46" s="15" t="s">
         <v>0</v>
@@ -7369,7 +7369,7 @@
         <v>23</v>
       </c>
       <c r="H46" s="16" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="47" spans="1:12" s="1" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -7380,7 +7380,7 @@
         <v>53</v>
       </c>
       <c r="C47" s="15" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D47" s="15" t="s">
         <v>0</v>
@@ -7395,7 +7395,7 @@
         <v>31</v>
       </c>
       <c r="H47" s="16" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="48" spans="1:12" s="1" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -7406,10 +7406,10 @@
         <v>53</v>
       </c>
       <c r="C48" s="15" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D48" s="15" t="s">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="E48" s="15" t="s">
         <v>32</v>
@@ -7421,7 +7421,7 @@
         <v>33</v>
       </c>
       <c r="H48" s="16" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="49" spans="1:8" s="1" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -7432,7 +7432,7 @@
         <v>53</v>
       </c>
       <c r="C49" s="15" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D49" s="15" t="s">
         <v>0</v>
@@ -7441,13 +7441,13 @@
         <v>32</v>
       </c>
       <c r="F49" s="15" t="s">
-        <v>20</v>
+        <v>588</v>
       </c>
       <c r="G49" s="15" t="s">
         <v>51</v>
       </c>
       <c r="H49" s="16" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="50" spans="1:8" s="1" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -7458,10 +7458,10 @@
         <v>53</v>
       </c>
       <c r="C50" s="15" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D50" s="15" t="s">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="E50" s="15" t="s">
         <v>43</v>
@@ -7473,7 +7473,7 @@
         <v>52</v>
       </c>
       <c r="H50" s="16" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="51" spans="1:8" s="1" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -7484,10 +7484,10 @@
         <v>54</v>
       </c>
       <c r="C51" s="15" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D51" s="15" t="s">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="E51" s="15" t="s">
         <v>4</v>
@@ -7499,7 +7499,7 @@
         <v>60</v>
       </c>
       <c r="H51" s="16" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="52" spans="1:8" s="1" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -7510,7 +7510,7 @@
         <v>54</v>
       </c>
       <c r="C52" s="15" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D52" s="15" t="s">
         <v>0</v>
@@ -7519,13 +7519,13 @@
         <v>4</v>
       </c>
       <c r="F52" s="15" t="s">
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="G52" s="15" t="s">
         <v>61</v>
       </c>
       <c r="H52" s="16" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="53" spans="1:8" s="1" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -7536,7 +7536,7 @@
         <v>54</v>
       </c>
       <c r="C53" s="15" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D53" s="15" t="s">
         <v>0</v>
@@ -7545,13 +7545,13 @@
         <v>4</v>
       </c>
       <c r="F53" s="15" t="s">
-        <v>5</v>
+        <v>593</v>
       </c>
       <c r="G53" s="15" t="s">
         <v>62</v>
       </c>
       <c r="H53" s="16" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="54" spans="1:8" s="1" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -7562,7 +7562,7 @@
         <v>54</v>
       </c>
       <c r="C54" s="15" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D54" s="15" t="s">
         <v>0</v>
@@ -7571,13 +7571,13 @@
         <v>4</v>
       </c>
       <c r="F54" s="15" t="s">
-        <v>25</v>
+        <v>594</v>
       </c>
       <c r="G54" s="15" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H54" s="16" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="55" spans="1:8" s="1" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -7588,7 +7588,7 @@
         <v>54</v>
       </c>
       <c r="C55" s="15" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D55" s="15" t="s">
         <v>0</v>
@@ -7603,7 +7603,7 @@
         <v>63</v>
       </c>
       <c r="H55" s="16" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="56" spans="1:8" s="1" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -7614,7 +7614,7 @@
         <v>54</v>
       </c>
       <c r="C56" s="15" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D56" s="15" t="s">
         <v>0</v>
@@ -7629,7 +7629,7 @@
         <v>59</v>
       </c>
       <c r="H56" s="16" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="57" spans="1:8" s="1" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -7640,7 +7640,7 @@
         <v>54</v>
       </c>
       <c r="C57" s="15" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D57" s="15" t="s">
         <v>0</v>
@@ -7652,10 +7652,10 @@
         <v>14</v>
       </c>
       <c r="G57" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H57" s="16" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="58" spans="1:8" s="1" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -7666,7 +7666,7 @@
         <v>54</v>
       </c>
       <c r="C58" s="15" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D58" s="15" t="s">
         <v>0</v>
@@ -7678,10 +7678,10 @@
         <v>14</v>
       </c>
       <c r="G58" s="15" t="s">
-        <v>70</v>
+        <v>592</v>
       </c>
       <c r="H58" s="16" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="59" spans="1:8" s="1" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -7692,7 +7692,7 @@
         <v>54</v>
       </c>
       <c r="C59" s="15" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D59" s="15" t="s">
         <v>0</v>
@@ -7704,10 +7704,10 @@
         <v>25</v>
       </c>
       <c r="G59" s="15" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H59" s="16" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="60" spans="1:8" s="1" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -7718,7 +7718,7 @@
         <v>53</v>
       </c>
       <c r="C60" s="15" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D60" s="15" t="s">
         <v>0</v>
@@ -7727,13 +7727,13 @@
         <v>7</v>
       </c>
       <c r="F60" s="15" t="s">
-        <v>585</v>
+        <v>567</v>
       </c>
       <c r="G60" s="15" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H60" s="16" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="61" spans="1:8" s="1" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -7744,7 +7744,7 @@
         <v>53</v>
       </c>
       <c r="C61" s="15" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D61" s="15" t="s">
         <v>0</v>
@@ -7753,13 +7753,13 @@
         <v>4</v>
       </c>
       <c r="F61" s="15" t="s">
-        <v>586</v>
+        <v>568</v>
       </c>
       <c r="G61" s="15" t="s">
         <v>45</v>
       </c>
       <c r="H61" s="16" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="62" spans="1:8" s="1" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -7770,7 +7770,7 @@
         <v>53</v>
       </c>
       <c r="C62" s="15" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D62" s="15" t="s">
         <v>0</v>
@@ -7779,13 +7779,13 @@
         <v>4</v>
       </c>
       <c r="F62" s="15" t="s">
-        <v>586</v>
+        <v>568</v>
       </c>
       <c r="G62" s="15" t="s">
         <v>47</v>
       </c>
       <c r="H62" s="16" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="63" spans="1:8" s="1" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -7796,7 +7796,7 @@
         <v>53</v>
       </c>
       <c r="C63" s="15" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D63" s="15" t="s">
         <v>0</v>
@@ -7805,13 +7805,13 @@
         <v>4</v>
       </c>
       <c r="F63" s="15" t="s">
-        <v>586</v>
+        <v>568</v>
       </c>
       <c r="G63" s="15" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H63" s="16" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="64" spans="1:8" s="1" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -7822,7 +7822,7 @@
         <v>53</v>
       </c>
       <c r="C64" s="15" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D64" s="15" t="s">
         <v>0</v>
@@ -7831,13 +7831,13 @@
         <v>4</v>
       </c>
       <c r="F64" s="15" t="s">
-        <v>586</v>
+        <v>571</v>
       </c>
       <c r="G64" s="15" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="H64" s="16" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="65" spans="1:8" s="1" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -7848,7 +7848,7 @@
         <v>53</v>
       </c>
       <c r="C65" s="15" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D65" s="15" t="s">
         <v>0</v>
@@ -7857,13 +7857,13 @@
         <v>4</v>
       </c>
       <c r="F65" s="15" t="s">
-        <v>586</v>
+        <v>568</v>
       </c>
       <c r="G65" s="15" t="s">
         <v>49</v>
       </c>
       <c r="H65" s="16" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="66" spans="1:8" s="1" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -7874,22 +7874,22 @@
         <v>53</v>
       </c>
       <c r="C66" s="15" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D66" s="15" t="s">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="E66" s="15" t="s">
         <v>4</v>
       </c>
       <c r="F66" s="15" t="s">
-        <v>590</v>
+        <v>571</v>
       </c>
       <c r="G66" s="15" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H66" s="16" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="67" spans="1:8" s="1" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -7900,7 +7900,7 @@
         <v>53</v>
       </c>
       <c r="C67" s="15" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D67" s="15" t="s">
         <v>0</v>
@@ -7909,13 +7909,13 @@
         <v>7</v>
       </c>
       <c r="F67" s="15" t="s">
-        <v>586</v>
+        <v>568</v>
       </c>
       <c r="G67" s="15" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H67" s="16" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="68" spans="1:8" s="1" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -7926,7 +7926,7 @@
         <v>53</v>
       </c>
       <c r="C68" s="15" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D68" s="15" t="s">
         <v>0</v>
@@ -7935,13 +7935,13 @@
         <v>7</v>
       </c>
       <c r="F68" s="15" t="s">
-        <v>589</v>
+        <v>570</v>
       </c>
       <c r="G68" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="H68" s="16" t="s">
         <v>148</v>
-      </c>
-      <c r="H68" s="16" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="69" spans="1:8" s="1" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -7952,7 +7952,7 @@
         <v>53</v>
       </c>
       <c r="C69" s="15" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D69" s="15" t="s">
         <v>0</v>
@@ -7961,13 +7961,13 @@
         <v>7</v>
       </c>
       <c r="F69" s="15" t="s">
-        <v>585</v>
+        <v>567</v>
       </c>
       <c r="G69" s="15" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H69" s="16" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="70" spans="1:8" s="1" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -7978,7 +7978,7 @@
         <v>54</v>
       </c>
       <c r="C70" s="15" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D70" s="15" t="s">
         <v>64</v>
@@ -7993,7 +7993,7 @@
         <v>65</v>
       </c>
       <c r="H70" s="16" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="71" spans="1:8" s="1" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -8004,7 +8004,7 @@
         <v>53</v>
       </c>
       <c r="C71" s="15" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D71" s="14" t="s">
         <v>34</v>
@@ -8016,10 +8016,10 @@
         <v>14</v>
       </c>
       <c r="G71" s="15" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H71" s="16" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="72" spans="1:8" s="1" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -8030,7 +8030,7 @@
         <v>53</v>
       </c>
       <c r="C72" s="15" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D72" s="14" t="s">
         <v>34</v>
@@ -8045,7 +8045,7 @@
         <v>35</v>
       </c>
       <c r="H72" s="16" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="73" spans="1:8" s="1" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -8056,7 +8056,7 @@
         <v>53</v>
       </c>
       <c r="C73" s="15" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D73" s="14" t="s">
         <v>34</v>
@@ -8071,7 +8071,7 @@
         <v>36</v>
       </c>
       <c r="H73" s="16" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="74" spans="1:8" s="1" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -8082,7 +8082,7 @@
         <v>53</v>
       </c>
       <c r="C74" s="15" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D74" s="14" t="s">
         <v>34</v>
@@ -8094,10 +8094,10 @@
         <v>18</v>
       </c>
       <c r="G74" s="15" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H74" s="16" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="75" spans="1:8" s="1" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -8108,7 +8108,7 @@
         <v>53</v>
       </c>
       <c r="C75" s="15" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D75" s="14" t="s">
         <v>34</v>
@@ -8123,7 +8123,7 @@
         <v>37</v>
       </c>
       <c r="H75" s="16" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="76" spans="1:8" s="1" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -8134,7 +8134,7 @@
         <v>53</v>
       </c>
       <c r="C76" s="15" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D76" s="14" t="s">
         <v>34</v>
@@ -8149,7 +8149,7 @@
         <v>38</v>
       </c>
       <c r="H76" s="16" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="77" spans="1:8" s="1" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -8160,7 +8160,7 @@
         <v>53</v>
       </c>
       <c r="C77" s="15" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D77" s="14" t="s">
         <v>34</v>
@@ -8175,7 +8175,7 @@
         <v>39</v>
       </c>
       <c r="H77" s="15" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="78" spans="1:8" s="1" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -8186,7 +8186,7 @@
         <v>53</v>
       </c>
       <c r="C78" s="15" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D78" s="14" t="s">
         <v>34</v>
@@ -8201,7 +8201,7 @@
         <v>40</v>
       </c>
       <c r="H78" s="15" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="79" spans="1:8" s="1" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -8212,7 +8212,7 @@
         <v>53</v>
       </c>
       <c r="C79" s="15" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D79" s="14" t="s">
         <v>34</v>
@@ -8227,7 +8227,7 @@
         <v>41</v>
       </c>
       <c r="H79" s="15" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="80" spans="1:8" s="1" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -8238,7 +8238,7 @@
         <v>53</v>
       </c>
       <c r="C80" s="15" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D80" s="14" t="s">
         <v>34</v>
@@ -8253,7 +8253,7 @@
         <v>42</v>
       </c>
       <c r="H80" s="15" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="81" spans="1:14" s="1" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -8264,7 +8264,7 @@
         <v>53</v>
       </c>
       <c r="C81" s="15" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D81" s="14" t="s">
         <v>34</v>
@@ -8279,7 +8279,7 @@
         <v>44</v>
       </c>
       <c r="H81" s="16" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="82" spans="1:14" s="1" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -8290,7 +8290,7 @@
         <v>53</v>
       </c>
       <c r="C82" s="15" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D82" s="14" t="s">
         <v>34</v>
@@ -8302,10 +8302,10 @@
         <v>18</v>
       </c>
       <c r="G82" s="15" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H82" s="16" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="83" spans="1:14" s="1" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -8316,7 +8316,7 @@
         <v>54</v>
       </c>
       <c r="C83" s="15" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D83" s="14" t="s">
         <v>34</v>
@@ -8325,13 +8325,13 @@
         <v>4</v>
       </c>
       <c r="F83" s="15" t="s">
-        <v>66</v>
+        <v>595</v>
       </c>
       <c r="G83" s="15" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H83" s="16" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="84" spans="1:14" s="1" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -8342,7 +8342,7 @@
         <v>54</v>
       </c>
       <c r="C84" s="15" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D84" s="14" t="s">
         <v>34</v>
@@ -8354,10 +8354,10 @@
         <v>21</v>
       </c>
       <c r="G84" s="15" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H84" s="16" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="85" spans="1:14" s="1" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -8368,7 +8368,7 @@
         <v>54</v>
       </c>
       <c r="C85" s="15" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D85" s="14" t="s">
         <v>34</v>
@@ -8380,10 +8380,10 @@
         <v>21</v>
       </c>
       <c r="G85" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H85" s="16" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="86" spans="1:14" s="1" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -8394,7 +8394,7 @@
         <v>54</v>
       </c>
       <c r="C86" s="15" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D86" s="14" t="s">
         <v>34</v>
@@ -8406,10 +8406,10 @@
         <v>5</v>
       </c>
       <c r="G86" s="15" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="H86" s="16" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="87" spans="1:14" s="1" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -8420,7 +8420,7 @@
         <v>53</v>
       </c>
       <c r="C87" s="15" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D87" s="15" t="s">
         <v>34</v>
@@ -8429,13 +8429,13 @@
         <v>6</v>
       </c>
       <c r="F87" s="15" t="s">
-        <v>584</v>
+        <v>566</v>
       </c>
       <c r="G87" s="15" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H87" s="16" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="88" spans="1:14" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -8446,7 +8446,7 @@
         <v>53</v>
       </c>
       <c r="C88" s="15" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D88" s="15" t="s">
         <v>34</v>
@@ -8455,13 +8455,13 @@
         <v>4</v>
       </c>
       <c r="F88" s="15" t="s">
-        <v>588</v>
+        <v>571</v>
       </c>
       <c r="G88" s="15" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H88" s="16" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="89" spans="1:14" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -8472,7 +8472,7 @@
         <v>53</v>
       </c>
       <c r="C89" s="15" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D89" s="15" t="s">
         <v>34</v>
@@ -8481,13 +8481,13 @@
         <v>4</v>
       </c>
       <c r="F89" s="15" t="s">
-        <v>586</v>
+        <v>568</v>
       </c>
       <c r="G89" s="17" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="H89" s="16" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="90" spans="1:14" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -8498,7 +8498,7 @@
         <v>53</v>
       </c>
       <c r="C90" s="15" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D90" s="16" t="s">
         <v>34</v>
@@ -8507,13 +8507,13 @@
         <v>3</v>
       </c>
       <c r="F90" s="16" t="s">
-        <v>587</v>
+        <v>569</v>
       </c>
       <c r="G90" s="16" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="H90" s="16" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="91" spans="1:14" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -8524,22 +8524,22 @@
         <v>53</v>
       </c>
       <c r="C91" s="15" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D91" s="16" t="s">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="E91" s="16" t="s">
         <v>4</v>
       </c>
       <c r="F91" s="16" t="s">
-        <v>592</v>
+        <v>573</v>
       </c>
       <c r="G91" s="16" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="H91" s="16" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="92" spans="1:14" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -8550,7 +8550,7 @@
         <v>53</v>
       </c>
       <c r="C92" s="15" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D92" s="16" t="s">
         <v>34</v>
@@ -8559,13 +8559,13 @@
         <v>4</v>
       </c>
       <c r="F92" s="16" t="s">
-        <v>586</v>
+        <v>568</v>
       </c>
       <c r="G92" s="17" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="H92" s="16" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="93" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
